--- a/report/Debug/report_sheet_new.xlsx
+++ b/report/Debug/report_sheet_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLS" sheetId="4" r:id="rId1"/>
@@ -1486,6 +1486,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1506,9 +1509,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8661,6 +8661,1256 @@
             <v>0</v>
           </cell>
           <cell r="P10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>2016:1:2:4:BEITOU_E</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>2</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
+            <v>2</v>
+          </cell>
+          <cell r="J11">
+            <v>0</v>
+          </cell>
+          <cell r="K11">
+            <v>2</v>
+          </cell>
+          <cell r="L11">
+            <v>1</v>
+          </cell>
+          <cell r="M11">
+            <v>0</v>
+          </cell>
+          <cell r="N11">
+            <v>3</v>
+          </cell>
+          <cell r="O11">
+            <v>0</v>
+          </cell>
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>2016:1:2:4:BEITOU_S</v>
+          </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>2</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>7</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>3</v>
+          </cell>
+          <cell r="L12">
+            <v>7</v>
+          </cell>
+          <cell r="M12">
+            <v>5</v>
+          </cell>
+          <cell r="N12">
+            <v>4</v>
+          </cell>
+          <cell r="O12">
+            <v>0</v>
+          </cell>
+          <cell r="P12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>2016:1:2:4:DANSHUI_E</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+          <cell r="D13">
+            <v>3</v>
+          </cell>
+          <cell r="E13">
+            <v>2</v>
+          </cell>
+          <cell r="F13">
+            <v>1</v>
+          </cell>
+          <cell r="G13">
+            <v>1</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>6</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>6</v>
+          </cell>
+          <cell r="L13">
+            <v>6</v>
+          </cell>
+          <cell r="M13">
+            <v>3</v>
+          </cell>
+          <cell r="N13">
+            <v>2</v>
+          </cell>
+          <cell r="O13">
+            <v>0</v>
+          </cell>
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>2016:1:2:4:JILONG_A_E</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>2</v>
+          </cell>
+          <cell r="E14">
+            <v>1</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>8</v>
+          </cell>
+          <cell r="L14">
+            <v>2</v>
+          </cell>
+          <cell r="M14">
+            <v>3</v>
+          </cell>
+          <cell r="N14">
+            <v>3</v>
+          </cell>
+          <cell r="O14">
+            <v>0</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>2016:1:2:4:JILONG_B_E</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>3</v>
+          </cell>
+          <cell r="F15">
+            <v>2</v>
+          </cell>
+          <cell r="G15">
+            <v>2</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>3</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>11</v>
+          </cell>
+          <cell r="L15">
+            <v>4</v>
+          </cell>
+          <cell r="M15">
+            <v>3</v>
+          </cell>
+          <cell r="N15">
+            <v>10</v>
+          </cell>
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>2016:1:2:4:LUODONG_A_E</v>
+          </cell>
+          <cell r="B16">
+            <v>1</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>1</v>
+          </cell>
+          <cell r="F16">
+            <v>2</v>
+          </cell>
+          <cell r="G16">
+            <v>2</v>
+          </cell>
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>4</v>
+          </cell>
+          <cell r="J16">
+            <v>0</v>
+          </cell>
+          <cell r="K16">
+            <v>5</v>
+          </cell>
+          <cell r="L16">
+            <v>4</v>
+          </cell>
+          <cell r="M16">
+            <v>2</v>
+          </cell>
+          <cell r="N16">
+            <v>2</v>
+          </cell>
+          <cell r="O16">
+            <v>0</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>2016:1:2:4:LUODONG_B_E</v>
+          </cell>
+          <cell r="B17">
+            <v>1</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>0</v>
+          </cell>
+          <cell r="E17">
+            <v>4</v>
+          </cell>
+          <cell r="F17">
+            <v>1</v>
+          </cell>
+          <cell r="G17">
+            <v>1</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>7</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>7</v>
+          </cell>
+          <cell r="L17">
+            <v>6</v>
+          </cell>
+          <cell r="M17">
+            <v>5</v>
+          </cell>
+          <cell r="N17">
+            <v>3</v>
+          </cell>
+          <cell r="O17">
+            <v>0</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>2016:1:2:4:LUZHOU_E</v>
+          </cell>
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>2</v>
+          </cell>
+          <cell r="E18">
+            <v>1</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>4</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>5</v>
+          </cell>
+          <cell r="L18">
+            <v>3</v>
+          </cell>
+          <cell r="M18">
+            <v>3</v>
+          </cell>
+          <cell r="N18">
+            <v>1</v>
+          </cell>
+          <cell r="O18">
+            <v>0</v>
+          </cell>
+          <cell r="P18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>2016:1:2:4:NEIHU_S</v>
+          </cell>
+          <cell r="B19">
+            <v>0</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>0</v>
+          </cell>
+          <cell r="E19">
+            <v>3</v>
+          </cell>
+          <cell r="F19">
+            <v>5</v>
+          </cell>
+          <cell r="G19">
+            <v>5</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>8</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="K19">
+            <v>2</v>
+          </cell>
+          <cell r="L19">
+            <v>7</v>
+          </cell>
+          <cell r="M19">
+            <v>5</v>
+          </cell>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>2016:1:2:4:NORTH_JINHUA_E</v>
+          </cell>
+          <cell r="B20">
+            <v>0</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>1</v>
+          </cell>
+          <cell r="E20">
+            <v>5</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>8</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="K20">
+            <v>4</v>
+          </cell>
+          <cell r="L20">
+            <v>6</v>
+          </cell>
+          <cell r="M20">
+            <v>4</v>
+          </cell>
+          <cell r="N20">
+            <v>2</v>
+          </cell>
+          <cell r="O20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>2016:1:2:4:SANCHONG_E</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>4</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+          <cell r="G21">
+            <v>0</v>
+          </cell>
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>4</v>
+          </cell>
+          <cell r="J21">
+            <v>0</v>
+          </cell>
+          <cell r="K21">
+            <v>6</v>
+          </cell>
+          <cell r="L21">
+            <v>2</v>
+          </cell>
+          <cell r="M21">
+            <v>3</v>
+          </cell>
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+          <cell r="O21">
+            <v>0</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>2016:1:2:4:SANCHONG_S</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>1</v>
+          </cell>
+          <cell r="D22">
+            <v>1</v>
+          </cell>
+          <cell r="E22">
+            <v>2</v>
+          </cell>
+          <cell r="F22">
+            <v>0</v>
+          </cell>
+          <cell r="G22">
+            <v>0</v>
+          </cell>
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>3</v>
+          </cell>
+          <cell r="J22">
+            <v>0</v>
+          </cell>
+          <cell r="K22">
+            <v>2</v>
+          </cell>
+          <cell r="L22">
+            <v>2</v>
+          </cell>
+          <cell r="M22">
+            <v>0</v>
+          </cell>
+          <cell r="N22">
+            <v>1</v>
+          </cell>
+          <cell r="O22">
+            <v>0</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>2016:1:2:4:SHILIN_E</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>1</v>
+          </cell>
+          <cell r="E23">
+            <v>2</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+          <cell r="G23">
+            <v>0</v>
+          </cell>
+          <cell r="H23">
+            <v>0</v>
+          </cell>
+          <cell r="I23">
+            <v>7</v>
+          </cell>
+          <cell r="J23">
+            <v>0</v>
+          </cell>
+          <cell r="K23">
+            <v>4</v>
+          </cell>
+          <cell r="L23">
+            <v>15</v>
+          </cell>
+          <cell r="M23">
+            <v>4</v>
+          </cell>
+          <cell r="N23">
+            <v>1</v>
+          </cell>
+          <cell r="O23">
+            <v>0</v>
+          </cell>
+          <cell r="P23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>2016:1:2:4:SHILIN_S</v>
+          </cell>
+          <cell r="B24">
+            <v>0</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>1</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>1</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>0</v>
+          </cell>
+          <cell r="L24">
+            <v>0</v>
+          </cell>
+          <cell r="M24">
+            <v>0</v>
+          </cell>
+          <cell r="N24">
+            <v>0</v>
+          </cell>
+          <cell r="O24">
+            <v>0</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>2016:1:2:4:SONGSHAN_E</v>
+          </cell>
+          <cell r="B25">
+            <v>1</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>4</v>
+          </cell>
+          <cell r="E25">
+            <v>2</v>
+          </cell>
+          <cell r="F25">
+            <v>1</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
+            <v>13</v>
+          </cell>
+          <cell r="J25">
+            <v>0</v>
+          </cell>
+          <cell r="K25">
+            <v>9</v>
+          </cell>
+          <cell r="L25">
+            <v>7</v>
+          </cell>
+          <cell r="M25">
+            <v>7</v>
+          </cell>
+          <cell r="N25">
+            <v>3</v>
+          </cell>
+          <cell r="O25">
+            <v>0</v>
+          </cell>
+          <cell r="P25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>2016:1:2:4:TIANMU_E</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>1</v>
+          </cell>
+          <cell r="E26">
+            <v>1</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26">
+            <v>0</v>
+          </cell>
+          <cell r="H26">
+            <v>0</v>
+          </cell>
+          <cell r="I26">
+            <v>2</v>
+          </cell>
+          <cell r="J26">
+            <v>0</v>
+          </cell>
+          <cell r="K26">
+            <v>3</v>
+          </cell>
+          <cell r="L26">
+            <v>3</v>
+          </cell>
+          <cell r="M26">
+            <v>1</v>
+          </cell>
+          <cell r="N26">
+            <v>1</v>
+          </cell>
+          <cell r="O26">
+            <v>0</v>
+          </cell>
+          <cell r="P26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>2016:1:2:4:WANDA_A_S</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>4</v>
+          </cell>
+          <cell r="M27">
+            <v>1</v>
+          </cell>
+          <cell r="N27">
+            <v>0</v>
+          </cell>
+          <cell r="O27">
+            <v>0</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>2016:1:2:4:WANDA_B_S</v>
+          </cell>
+          <cell r="B28">
+            <v>0</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>2</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>4</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>1</v>
+          </cell>
+          <cell r="L28">
+            <v>5</v>
+          </cell>
+          <cell r="M28">
+            <v>1</v>
+          </cell>
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+          <cell r="O28">
+            <v>0</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>2016:1:2:4:WANDA_E</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>1</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>2</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29">
+            <v>0</v>
+          </cell>
+          <cell r="H29">
+            <v>0</v>
+          </cell>
+          <cell r="I29">
+            <v>5</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="K29">
+            <v>3</v>
+          </cell>
+          <cell r="L29">
+            <v>8</v>
+          </cell>
+          <cell r="M29">
+            <v>3</v>
+          </cell>
+          <cell r="N29">
+            <v>1</v>
+          </cell>
+          <cell r="O29">
+            <v>0</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>2016:1:2:4:XINAN_S</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>1</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>1</v>
+          </cell>
+          <cell r="F30">
+            <v>1</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>8</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="K30">
+            <v>1</v>
+          </cell>
+          <cell r="L30">
+            <v>5</v>
+          </cell>
+          <cell r="M30">
+            <v>5</v>
+          </cell>
+          <cell r="N30">
+            <v>3</v>
+          </cell>
+          <cell r="O30">
+            <v>0</v>
+          </cell>
+          <cell r="P30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>2016:1:2:4:XIZHI_A_E</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>2</v>
+          </cell>
+          <cell r="E31">
+            <v>2</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31">
+            <v>0</v>
+          </cell>
+          <cell r="H31">
+            <v>0</v>
+          </cell>
+          <cell r="I31">
+            <v>4</v>
+          </cell>
+          <cell r="J31">
+            <v>0</v>
+          </cell>
+          <cell r="K31">
+            <v>7</v>
+          </cell>
+          <cell r="L31">
+            <v>5</v>
+          </cell>
+          <cell r="M31">
+            <v>1</v>
+          </cell>
+          <cell r="N31">
+            <v>2</v>
+          </cell>
+          <cell r="O31">
+            <v>0</v>
+          </cell>
+          <cell r="P31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>2016:1:2:4:XIZHI_B_E</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>1</v>
+          </cell>
+          <cell r="E32">
+            <v>3</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>6</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>3</v>
+          </cell>
+          <cell r="L32">
+            <v>11</v>
+          </cell>
+          <cell r="M32">
+            <v>3</v>
+          </cell>
+          <cell r="N32">
+            <v>0</v>
+          </cell>
+          <cell r="O32">
+            <v>0</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>2016:1:2:4:XIZHI_S</v>
+          </cell>
+          <cell r="B33">
+            <v>0</v>
+          </cell>
+          <cell r="C33">
+            <v>0</v>
+          </cell>
+          <cell r="D33">
+            <v>1</v>
+          </cell>
+          <cell r="E33">
+            <v>2</v>
+          </cell>
+          <cell r="F33">
+            <v>1</v>
+          </cell>
+          <cell r="G33">
+            <v>1</v>
+          </cell>
+          <cell r="H33">
+            <v>0</v>
+          </cell>
+          <cell r="I33">
+            <v>5</v>
+          </cell>
+          <cell r="J33">
+            <v>0</v>
+          </cell>
+          <cell r="K33">
+            <v>3</v>
+          </cell>
+          <cell r="L33">
+            <v>3</v>
+          </cell>
+          <cell r="M33">
+            <v>0</v>
+          </cell>
+          <cell r="N33">
+            <v>3</v>
+          </cell>
+          <cell r="O33">
+            <v>0</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>2016:1:2:4:YILAN_S</v>
+          </cell>
+          <cell r="B34">
+            <v>0</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>1</v>
+          </cell>
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34">
+            <v>0</v>
+          </cell>
+          <cell r="H34">
+            <v>0</v>
+          </cell>
+          <cell r="I34">
+            <v>1</v>
+          </cell>
+          <cell r="J34">
+            <v>0</v>
+          </cell>
+          <cell r="K34">
+            <v>0</v>
+          </cell>
+          <cell r="L34">
+            <v>6</v>
+          </cell>
+          <cell r="M34">
+            <v>1</v>
+          </cell>
+          <cell r="N34">
+            <v>0</v>
+          </cell>
+          <cell r="O34">
+            <v>0</v>
+          </cell>
+          <cell r="P34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>2016:1:2:4:ZHUWEI_E</v>
+          </cell>
+          <cell r="B35">
+            <v>1</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>2</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>3</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>1</v>
+          </cell>
+          <cell r="L35">
+            <v>2</v>
+          </cell>
+          <cell r="M35">
+            <v>0</v>
+          </cell>
+          <cell r="N35">
+            <v>2</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
             <v>0</v>
           </cell>
         </row>
@@ -8960,7 +10210,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8997,7 +10247,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9005,7 +10255,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9043,42 +10293,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -9090,22 +10340,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -9114,68 +10364,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -9184,68 +10434,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -9386,7 +10636,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:TUCHENG_E</v>
+        <v>2016:1:2:4:TUCHENG_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -9465,7 +10715,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:SANXIA_A</v>
+        <v>2016:1:2:4:SANXIA_A</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -9544,7 +10794,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TUCHENG_B_S</v>
+        <v>2016:1:2:4:TUCHENG_B_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -9705,7 +10955,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="37"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
@@ -9716,7 +10966,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A17)</f>
-        <v>2016:1:1:7:DANFENG_E</v>
+        <v>2016:1:2:4:DANFENG_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -9795,7 +11045,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:1:7:SIYUAN_E</v>
+        <v>2016:1:2:4:SIYUAN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -9967,7 +11217,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f t="shared" ref="C21:C24" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:1:7:XINPU_S</v>
+        <v>2016:1:2:4:XINPU_S</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -10046,7 +11296,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:XINBAN_E</v>
+        <v>2016:1:2:4:XINBAN_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -10125,7 +11375,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:XINPU_S</v>
+        <v>2016:1:2:4:XINPU_S</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -10204,7 +11454,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:BANQIAO_S</v>
+        <v>2016:1:2:4:BANQIAO_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -10357,17 +11607,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L14 K17:L18">
     <cfRule type="cellIs" dxfId="246" priority="77" operator="lessThan">
@@ -10538,7 +11788,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10560,42 +11810,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10607,22 +11857,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -10631,68 +11881,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -10701,68 +11951,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -10903,74 +12153,74 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:SONGSHAN_E</v>
-      </c>
-      <c r="D12" s="11" t="e">
+        <v>2016:1:2:4:SONGSHAN_E</v>
+      </c>
+      <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="21" t="e">
+        <v>25</v>
+      </c>
+      <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="K12" s="21" t="e">
+      <c r="K12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="21" t="e">
+        <v>13</v>
+      </c>
+      <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="21" t="e">
+        <v>9</v>
+      </c>
+      <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S12" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -10982,7 +12232,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:SONGSHAN_S</v>
+        <v>2016:1:2:4:SONGSHAN_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -11061,7 +12311,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:NEIHU_E</v>
+        <v>2016:1:2:4:NEIHU_E</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -11140,74 +12390,74 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:NEIHU_S</v>
-      </c>
-      <c r="D15" s="11" t="e">
+        <v>2016:1:2:4:NEIHU_S</v>
+      </c>
+      <c r="D15" s="11">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="21" t="e">
+        <v>19</v>
+      </c>
+      <c r="E15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="I15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="21" t="e">
+      <c r="K15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="L15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="N15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="P15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="R15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="S15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -11301,7 +12551,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="37"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -11312,74 +12562,74 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:JILONG_A_E</v>
-      </c>
-      <c r="D18" s="11" t="e">
+        <v>2016:1:2:4:JILONG_A_E</v>
+      </c>
+      <c r="D18" s="11">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="21" t="e">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="H18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="I18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="21" t="e">
+      <c r="K18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="P18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="R18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -11391,74 +12641,74 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:1:7:JILONG_B_E</v>
-      </c>
-      <c r="D19" s="11" t="e">
+        <v>2016:1:2:4:JILONG_B_E</v>
+      </c>
+      <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="21" t="e">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="K19" s="21" t="e">
+      <c r="K19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="L19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="21" t="e">
+        <v>10</v>
+      </c>
+      <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -11468,66 +12718,66 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="22" t="e">
+      <c r="E20" s="22">
         <f>SUM(E18:E19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="F20" s="22">
         <f>SUM(F18:F19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
         <f>SUM(G18:G19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="22" t="e">
+        <v>2</v>
+      </c>
+      <c r="H20" s="22">
         <f>SUM(H18:H19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="I20" s="22">
         <f>SUM(I18:I19)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="J20" s="20"/>
-      <c r="K20" s="22" t="e">
+      <c r="K20" s="22">
         <f t="shared" ref="K20:T20" si="2">SUM(K18:K19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="22" t="e">
+        <v>2</v>
+      </c>
+      <c r="L20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="M20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="22" t="e">
+        <v>3</v>
+      </c>
+      <c r="N20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="O20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="22" t="e">
+        <v>19</v>
+      </c>
+      <c r="P20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="22" t="e">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="22" t="e">
+        <v>6</v>
+      </c>
+      <c r="R20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="22" t="e">
+        <v>13</v>
+      </c>
+      <c r="S20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="T20" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -11552,7 +12802,7 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="37"/>
+      <c r="T21" s="30"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
@@ -11563,74 +12813,74 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" ref="C22" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:1:7:XIZHI_A_E</v>
-      </c>
-      <c r="D22" s="11" t="e">
+        <v>2016:1:2:4:XIZHI_A_E</v>
+      </c>
+      <c r="D22" s="11">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="21" t="e">
+        <v>31</v>
+      </c>
+      <c r="E22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H22" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="H22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I22" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J22" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="K22" s="21" t="e">
+      <c r="K22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N22" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="N22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="P22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="R22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="S22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -11642,74 +12892,74 @@
       </c>
       <c r="C23" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A23)</f>
-        <v>2016:1:1:7:XIZHI_B_E</v>
-      </c>
-      <c r="D23" s="11" t="e">
+        <v>2016:1:2:4:XIZHI_B_E</v>
+      </c>
+      <c r="D23" s="11">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E23" s="21" t="e">
+        <v>32</v>
+      </c>
+      <c r="E23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H23" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I23" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="I23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="K23" s="21" t="e">
+      <c r="K23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N23" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="N23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="P23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="R23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -11721,74 +12971,74 @@
       </c>
       <c r="C24" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A24)</f>
-        <v>2016:1:1:7:XIZHI_S</v>
-      </c>
-      <c r="D24" s="11" t="e">
+        <v>2016:1:2:4:XIZHI_S</v>
+      </c>
+      <c r="D24" s="11">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E24" s="21" t="e">
+        <v>33</v>
+      </c>
+      <c r="E24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I24" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="K24" s="21" t="e">
+      <c r="K24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L24" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="L24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N24" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="N24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="P24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="R24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -11798,66 +13048,66 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="22" t="e">
+      <c r="E25" s="22">
         <f>SUM(E22:E24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F25" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
         <f t="shared" ref="F25:I25" si="4">SUM(F22:F24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H25" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="H25" s="22">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I25" s="22" t="e">
+        <v>7</v>
+      </c>
+      <c r="I25" s="22">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J25" s="20"/>
-      <c r="K25" s="22" t="e">
+      <c r="K25" s="22">
         <f t="shared" ref="K25:T25" si="5">SUM(K22:K24)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L25" s="22" t="e">
+        <v>1</v>
+      </c>
+      <c r="L25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N25" s="22" t="e">
+        <v>15</v>
+      </c>
+      <c r="N25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" s="22" t="e">
+        <v>13</v>
+      </c>
+      <c r="P25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" s="22" t="e">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R25" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="R25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" s="22" t="e">
+        <v>5</v>
+      </c>
+      <c r="S25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="T25" s="22">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -11893,74 +13143,74 @@
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" ref="C27:C30" si="6">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A27)</f>
-        <v>2016:1:1:7:LUODONG_A_E</v>
-      </c>
-      <c r="D27" s="11" t="e">
+        <v>2016:1:2:4:LUODONG_A_E</v>
+      </c>
+      <c r="D27" s="11">
         <f>MATCH($C27,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E27" s="21" t="e">
+        <v>16</v>
+      </c>
+      <c r="E27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I27" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="K27" s="21" t="e">
+      <c r="K27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L27" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="L27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N27" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="N27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P27" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="P27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R27" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="R27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S27" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="S27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T27" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -11972,74 +13222,74 @@
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:1:7:LUODONG_B_E</v>
-      </c>
-      <c r="D28" s="11" t="e">
+        <v>2016:1:2:4:LUODONG_B_E</v>
+      </c>
+      <c r="D28" s="11">
         <f>MATCH($C28,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E28" s="21" t="e">
+        <v>17</v>
+      </c>
+      <c r="E28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="F28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I28" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="I28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="K28" s="21" t="e">
+      <c r="K28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L28" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="L28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N28" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="N28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P28" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="P28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R28" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="R28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S28" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T28" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -12051,7 +13301,7 @@
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:1:7:YILAN_E</v>
+        <v>2016:1:2:4:YILAN_E</v>
       </c>
       <c r="D29" s="11" t="e">
         <f>MATCH($C29,[1]report_data!$A:$A,0)</f>
@@ -12130,74 +13380,74 @@
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:1:7:YILAN_S</v>
-      </c>
-      <c r="D30" s="11" t="e">
+        <v>2016:1:2:4:YILAN_S</v>
+      </c>
+      <c r="D30" s="11">
         <f>MATCH($C30,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E30" s="21" t="e">
+        <v>34</v>
+      </c>
+      <c r="E30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H30" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="K30" s="21" t="e">
+      <c r="K30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N30" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="N30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="P30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R30" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="R30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="S30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T30" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -12275,17 +13525,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K18:L19">
     <cfRule type="cellIs" dxfId="207" priority="90" operator="lessThan">
@@ -12690,42 +13940,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12737,22 +13987,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -12761,68 +14011,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -12831,68 +14081,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -13033,7 +14283,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:TAO_3_E_ZL</v>
+        <v>2016:1:2:4:TAO_3_E_ZL</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -13112,7 +14362,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TAO_3_E</v>
+        <v>2016:1:2:4:TAO_3_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -13191,7 +14441,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:NANKAN_E</v>
+        <v>2016:1:2:4:NANKAN_E</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -13270,7 +14520,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:NANKAN_S</v>
+        <v>2016:1:2:4:NANKAN_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -13431,7 +14681,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="37"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -13442,7 +14692,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TAO_2_E</v>
+        <v>2016:1:2:4:TAO_2_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -13521,7 +14771,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:1:7:TAO_1_A</v>
+        <v>2016:1:2:4:TAO_1_A</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -13600,7 +14850,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:1:7:TAO_1_B</v>
+        <v>2016:1:2:4:TAO_1_B</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -13679,7 +14929,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:1:7:TAO_2_S</v>
+        <v>2016:1:2:4:TAO_2_S</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -13758,7 +15008,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:1:7:GUISHAN_E</v>
+        <v>2016:1:2:4:GUISHAN_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -13919,7 +15169,7 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
-      <c r="T24" s="37"/>
+      <c r="T24" s="30"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -13930,7 +15180,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" ref="C25" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A25)</f>
-        <v>2016:1:1:7:BADE_A_E</v>
+        <v>2016:1:2:4:BADE_A_E</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -14009,7 +15259,7 @@
       </c>
       <c r="C26" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A26)</f>
-        <v>2016:1:1:7:LONGTAN_E</v>
+        <v>2016:1:2:4:LONGTAN_E</v>
       </c>
       <c r="D26" s="11" t="e">
         <f>MATCH($C26,[1]report_data!$A:$A,0)</f>
@@ -14088,7 +15338,7 @@
       </c>
       <c r="C27" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A27)</f>
-        <v>2016:1:1:7:BADE_B_E</v>
+        <v>2016:1:2:4:BADE_B_E</v>
       </c>
       <c r="D27" s="11" t="e">
         <f>MATCH($C27,[1]report_data!$A:$A,0)</f>
@@ -14167,7 +15417,7 @@
       </c>
       <c r="C28" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A28)</f>
-        <v>2016:1:1:7:BADE_S</v>
+        <v>2016:1:2:4:BADE_S</v>
       </c>
       <c r="D28" s="11" t="e">
         <f>MATCH($C28,[1]report_data!$A:$A,0)</f>
@@ -14328,7 +15578,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="S30" s="23"/>
-      <c r="T30" s="37"/>
+      <c r="T30" s="30"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
@@ -14339,7 +15589,7 @@
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" ref="C31" si="6">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A31)</f>
-        <v>2016:1:1:7:ZHONGLI_2_E</v>
+        <v>2016:1:2:4:ZHONGLI_2_E</v>
       </c>
       <c r="D31" s="11" t="e">
         <f>MATCH($C31,[1]report_data!$A:$A,0)</f>
@@ -14418,7 +15668,7 @@
       </c>
       <c r="C32" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A32)</f>
-        <v>2016:1:1:7:ZHONGLI_1_E</v>
+        <v>2016:1:2:4:ZHONGLI_1_E</v>
       </c>
       <c r="D32" s="11" t="e">
         <f>MATCH($C32,[1]report_data!$A:$A,0)</f>
@@ -14497,7 +15747,7 @@
       </c>
       <c r="C33" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A33)</f>
-        <v>2016:1:1:7:ZHONGLI_1_S</v>
+        <v>2016:1:2:4:ZHONGLI_1_S</v>
       </c>
       <c r="D33" s="11" t="e">
         <f>MATCH($C33,[1]report_data!$A:$A,0)</f>
@@ -14650,17 +15900,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K18:L19 K22:L22">
     <cfRule type="cellIs" dxfId="116" priority="116" operator="lessThan">
@@ -15171,42 +16421,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15218,22 +16468,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -15242,68 +16492,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -15312,68 +16562,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -15514,7 +16764,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:ASSISTANTS</v>
+        <v>2016:1:2:4:ASSISTANTS</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -15593,7 +16843,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TOUR_S</v>
+        <v>2016:1:2:4:TOUR_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -15672,74 +16922,74 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:OFFICE_E</v>
-      </c>
-      <c r="D14" s="11">
+        <v>2016:1:2:4:OFFICE_E</v>
+      </c>
+      <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>4</v>
-      </c>
-      <c r="E14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="L14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="N14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="O14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="O14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
-      </c>
-      <c r="P14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>9</v>
-      </c>
-      <c r="Q14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="R14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="R14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="S14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="T14" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -15825,17 +17075,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="662" priority="38" operator="lessThan">
@@ -15975,42 +17225,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -16022,22 +17272,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -16046,68 +17296,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -16116,68 +17366,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -16318,7 +17568,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:JIAN_E</v>
+        <v>2016:1:2:4:JIAN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -16397,7 +17647,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:HUALIAN_1_E</v>
+        <v>2016:1:2:4:HUALIAN_1_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -16476,7 +17726,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:HUALIAN_1_S</v>
+        <v>2016:1:2:4:HUALIAN_1_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -16648,7 +17898,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" ref="C17:C19" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A17)</f>
-        <v>2016:1:1:7:HUALIAN_3_A_E</v>
+        <v>2016:1:2:4:HUALIAN_3_A_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -16727,7 +17977,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:HUALIAN_3_B_E</v>
+        <v>2016:1:2:4:HUALIAN_3_B_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -16806,7 +18056,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:HUALIAN_1_S</v>
+        <v>2016:1:2:4:HUALIAN_1_S</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -16959,17 +18209,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L12 K14:L14">
     <cfRule type="cellIs" dxfId="636" priority="64" operator="lessThan">
@@ -17215,42 +18465,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -17262,22 +18512,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -17286,68 +18536,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -17356,68 +18606,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -17558,7 +18808,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C13" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:TAIDONG_3_E</v>
+        <v>2016:1:2:4:TAIDONG_3_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -17637,7 +18887,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TAIDONG_2_S</v>
+        <v>2016:1:2:4:TAIDONG_2_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -17809,7 +19059,7 @@
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" ref="C16:C18" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A16)</f>
-        <v>2016:1:1:7:TAIDONG_1_E</v>
+        <v>2016:1:2:4:TAIDONG_1_E</v>
       </c>
       <c r="D16" s="11" t="e">
         <f>MATCH($C16,[1]report_data!$A:$A,0)</f>
@@ -17888,7 +19138,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:TAIDONG_3_E</v>
+        <v>2016:1:2:4:TAIDONG_3_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -17967,7 +19217,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:TAIDONG_1_S</v>
+        <v>2016:1:2:4:TAIDONG_1_S</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -18139,7 +19389,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f t="shared" ref="C21:C22" si="4">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:1:7:YULI_E</v>
+        <v>2016:1:2:4:YULI_E</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -18218,7 +19468,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>2016:1:1:7:YULI_S</v>
+        <v>2016:1:2:4:YULI_S</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -18302,17 +19552,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="584" priority="77" operator="lessThan">
@@ -18558,42 +19808,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -18605,22 +19855,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -18629,68 +19879,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -18699,68 +19949,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -18901,7 +20151,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C15" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:ZHUNAN_E</v>
+        <v>2016:1:2:4:ZHUNAN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -18980,7 +20230,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XIANGSHAN_A</v>
+        <v>2016:1:2:4:XIANGSHAN_A</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -19059,7 +20309,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XIANGSHAN_B</v>
+        <v>2016:1:2:4:XIANGSHAN_B</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -19138,7 +20388,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:ZHUNAN_S</v>
+        <v>2016:1:2:4:ZHUNAN_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -19310,7 +20560,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" ref="C18:C20" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:1:7:TOUFEN_E</v>
+        <v>2016:1:2:4:TOUFEN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -19389,7 +20639,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:MIAOLI_B_E</v>
+        <v>2016:1:2:4:MIAOLI_B_E</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -19468,7 +20718,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:1:7:MIAOLI_A_E</v>
+        <v>2016:1:2:4:MIAOLI_A_E</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -19621,17 +20871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13">
     <cfRule type="cellIs" dxfId="532" priority="77" operator="lessThan">
@@ -19930,42 +21180,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -19977,22 +21227,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -20001,68 +21251,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -20071,68 +21321,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -20273,7 +21523,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:XINZHU_3_E</v>
+        <v>2016:1:2:4:XINZHU_3_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -20352,7 +21602,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XINZHU_1_E</v>
+        <v>2016:1:2:4:XINZHU_1_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -20431,7 +21681,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XINZHU_1_S</v>
+        <v>2016:1:2:4:XINZHU_1_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -20510,7 +21760,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XINZHU_3_S</v>
+        <v>2016:1:2:4:XINZHU_3_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -20671,7 +21921,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="37"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -20682,7 +21932,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:ZHUDONG_E</v>
+        <v>2016:1:2:4:ZHUDONG_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -20761,7 +22011,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:1:7:ZHUDONG_S</v>
+        <v>2016:1:2:4:ZHUDONG_S</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -20933,7 +22183,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" ref="C22:C25" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:1:7:ZHUBEI_1_E</v>
+        <v>2016:1:2:4:ZHUBEI_1_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -21012,7 +22262,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:ZHUBEI_2_E</v>
+        <v>2016:1:2:4:ZHUBEI_2_E</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -21091,7 +22341,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:ZHUBEI_1_S</v>
+        <v>2016:1:2:4:ZHUBEI_1_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -21170,7 +22420,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:ZHUBEI_2_S</v>
+        <v>2016:1:2:4:ZHUBEI_2_S</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -21323,17 +22573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K18:L19">
     <cfRule type="cellIs" dxfId="467" priority="77" operator="lessThan">
@@ -21685,42 +22935,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -21732,22 +22982,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -21756,67 +23006,67 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -21825,68 +23075,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -22027,11 +23277,11 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C19" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:NORTH_JINHUA_E</v>
+        <v>2016:1:2:4:NORTH_JINHUA_E</v>
       </c>
       <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22066,31 +23316,31 @@
       </c>
       <c r="M12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22106,11 +23356,11 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:WANDA_E</v>
+        <v>2016:1:2:4:WANDA_E</v>
       </c>
       <c r="D13" s="11">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22149,27 +23399,27 @@
       </c>
       <c r="N13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22185,11 +23435,11 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:WANDA_A_S</v>
+        <v>2016:1:2:4:WANDA_A_S</v>
       </c>
       <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22232,7 +23482,7 @@
       </c>
       <c r="O14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22240,11 +23490,11 @@
       </c>
       <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22264,11 +23514,11 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XINAN_S</v>
+        <v>2016:1:2:4:XINAN_S</v>
       </c>
       <c r="D15" s="11">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22303,7 +23553,7 @@
       </c>
       <c r="M15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22311,7 +23561,7 @@
       </c>
       <c r="O15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22319,7 +23569,7 @@
       </c>
       <c r="Q15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22343,11 +23593,11 @@
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:WANDA_B_S</v>
+        <v>2016:1:2:4:WANDA_B_S</v>
       </c>
       <c r="D16" s="11">
         <f>MATCH($C16,[1]report_data!$A:$A,0)</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22386,11 +23636,11 @@
       </c>
       <c r="N16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22398,7 +23648,7 @@
       </c>
       <c r="Q16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22406,7 +23656,7 @@
       </c>
       <c r="S16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22451,31 +23701,31 @@
       </c>
       <c r="M17" s="22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N17" s="22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R17" s="22">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S17" s="22">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="1"/>
@@ -22504,7 +23754,7 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
-      <c r="T18" s="37"/>
+      <c r="T18" s="30"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -22515,11 +23765,11 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:SANCHONG_E</v>
+        <v>2016:1:2:4:SANCHONG_E</v>
       </c>
       <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22558,23 +23808,23 @@
       </c>
       <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22594,11 +23844,11 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:1:7:LUZHOU_E</v>
+        <v>2016:1:2:4:LUZHOU_E</v>
       </c>
       <c r="D20" s="11">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22618,14 +23868,14 @@
       </c>
       <c r="I20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>176</v>
       </c>
       <c r="K20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22637,27 +23887,27 @@
       </c>
       <c r="N20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22673,11 +23923,11 @@
       </c>
       <c r="C21" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:1:7:SANCHONG_S</v>
+        <v>2016:1:2:4:SANCHONG_S</v>
       </c>
       <c r="D21" s="11">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22712,31 +23962,31 @@
       </c>
       <c r="M21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -22768,12 +24018,12 @@
       </c>
       <c r="I22" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="22">
         <f t="shared" si="2"/>
@@ -22781,31 +24031,31 @@
       </c>
       <c r="M22" s="22">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R22" s="22">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S22" s="22">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T22" s="22">
         <f t="shared" si="2"/>
@@ -22826,17 +24076,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E1:I8"/>
-    <mergeCell ref="K1:K8"/>
-    <mergeCell ref="L1:L8"/>
-    <mergeCell ref="M1:M8"/>
-    <mergeCell ref="N1:N8"/>
     <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="P1:P8"/>
     <mergeCell ref="Q1:Q8"/>
     <mergeCell ref="R1:R8"/>
     <mergeCell ref="S1:S8"/>
+    <mergeCell ref="E1:I8"/>
+    <mergeCell ref="K1:K8"/>
+    <mergeCell ref="L1:L8"/>
+    <mergeCell ref="M1:M8"/>
+    <mergeCell ref="N1:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K19:L21 K16:L16">
     <cfRule type="cellIs" dxfId="389" priority="51" operator="lessThan">
@@ -23007,7 +24257,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23029,42 +24279,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -23076,22 +24326,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -23100,68 +24350,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -23170,68 +24420,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -23372,74 +24622,74 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C17" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:SHILIN_E</v>
-      </c>
-      <c r="D12" s="11" t="e">
+        <v>2016:1:2:4:SHILIN_E</v>
+      </c>
+      <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="21" t="e">
+        <v>23</v>
+      </c>
+      <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="K12" s="21" t="e">
+      <c r="K12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P12" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12" s="21" t="e">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R12" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S12" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T12" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -23451,74 +24701,74 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:TIANMU_E</v>
-      </c>
-      <c r="D13" s="11" t="e">
+        <v>2016:1:2:4:TIANMU_E</v>
+      </c>
+      <c r="D13" s="11">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="21" t="e">
+        <v>26</v>
+      </c>
+      <c r="E13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="I13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="K13" s="21" t="e">
+      <c r="K13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="N13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P13" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="P13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="R13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S13" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="S13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T13" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -23530,74 +24780,74 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:SHILIN_S</v>
-      </c>
-      <c r="D14" s="11" t="e">
+        <v>2016:1:2:4:SHILIN_S</v>
+      </c>
+      <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="21" t="e">
+        <v>24</v>
+      </c>
+      <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="K14" s="21" t="e">
+      <c r="K14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="N14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -23607,66 +24857,66 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="22" t="e">
+      <c r="E15" s="22">
         <f>SUM(E12:E14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
         <f>SUM(F12:F14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
         <f>SUM(G12:G14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="22" t="e">
+        <v>2</v>
+      </c>
+      <c r="H15" s="22">
         <f>SUM(H12:H14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I15" s="22" t="e">
+        <v>4</v>
+      </c>
+      <c r="I15" s="22">
         <f>SUM(I12:I14)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J15" s="20"/>
-      <c r="K15" s="22" t="e">
+      <c r="K15" s="22">
         <f t="shared" ref="K15:T15" si="1">SUM(K12:K14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="22" t="e">
+        <v>10</v>
+      </c>
+      <c r="N15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P15" s="22" t="e">
+        <v>7</v>
+      </c>
+      <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15" s="22" t="e">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R15" s="22" t="e">
+        <v>5</v>
+      </c>
+      <c r="R15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S15" s="22" t="e">
+        <v>2</v>
+      </c>
+      <c r="S15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T15" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="T15" s="22">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -23691,7 +24941,7 @@
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
-      <c r="T16" s="37"/>
+      <c r="T16" s="30"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -23702,74 +24952,74 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:BEITOU_E</v>
-      </c>
-      <c r="D17" s="11" t="e">
+        <v>2016:1:2:4:BEITOU_E</v>
+      </c>
+      <c r="D17" s="11">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" s="21" t="e">
+        <v>11</v>
+      </c>
+      <c r="E17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I17" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="21" t="e">
+      <c r="K17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="N17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P17" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="P17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S17" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T17" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -23781,74 +25031,74 @@
       </c>
       <c r="C18" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:1:7:DANSHUI_E</v>
-      </c>
-      <c r="D18" s="11" t="e">
+        <v>2016:1:2:4:DANSHUI_E</v>
+      </c>
+      <c r="D18" s="11">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" s="21" t="e">
+        <v>13</v>
+      </c>
+      <c r="E18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="G18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="H18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I18" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="K18" s="21" t="e">
+      <c r="K18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="N18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P18" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="P18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R18" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="R18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="S18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T18" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -23860,74 +25110,74 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:1:7:ZHUWEI_E</v>
-      </c>
-      <c r="D19" s="11" t="e">
+        <v>2016:1:2:4:ZHUWEI_E</v>
+      </c>
+      <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" s="21" t="e">
+        <v>35</v>
+      </c>
+      <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="K19" s="21" t="e">
+      <c r="K19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N19" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P19" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S19" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T19" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -23939,74 +25189,74 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:1:7:BEITOU_S</v>
-      </c>
-      <c r="D20" s="11" t="e">
+        <v>2016:1:2:4:BEITOU_S</v>
+      </c>
+      <c r="D20" s="11">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E20" s="21" t="e">
+        <v>12</v>
+      </c>
+      <c r="E20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I20" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="I20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="21" t="e">
+      <c r="K20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N20" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="N20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P20" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="P20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R20" s="21" t="e">
+        <v>5</v>
+      </c>
+      <c r="R20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S20" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="S20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T20" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -24016,66 +25266,66 @@
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="22" t="e">
+      <c r="E21" s="22">
         <f>SUM(E17:E19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F21" s="22" t="e">
+        <v>2</v>
+      </c>
+      <c r="F21" s="22">
         <f t="shared" ref="F21:T21" si="2">SUM(F17:F19)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="22" t="e">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H21" s="22" t="e">
+        <v>3</v>
+      </c>
+      <c r="H21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I21" s="22" t="e">
+        <v>6</v>
+      </c>
+      <c r="I21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="J21" s="20"/>
-      <c r="K21" s="22" t="e">
+      <c r="K21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="22" t="e">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M21" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N21" s="22" t="e">
+        <v>11</v>
+      </c>
+      <c r="N21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O21" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="O21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P21" s="22" t="e">
+        <v>9</v>
+      </c>
+      <c r="P21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21" s="22" t="e">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R21" s="22" t="e">
+        <v>3</v>
+      </c>
+      <c r="R21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S21" s="22" t="e">
+        <v>7</v>
+      </c>
+      <c r="S21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T21" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="T21" s="22">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -24092,17 +25342,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L14 K17:L19">
     <cfRule type="cellIs" dxfId="350" priority="25" operator="lessThan">
@@ -24242,42 +25492,42 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="T1" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -24289,22 +25539,22 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
     </row>
     <row r="3" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -24313,68 +25563,68 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="27"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
     </row>
     <row r="6" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -24383,68 +25633,68 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
     </row>
     <row r="8" spans="1:20" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
       <c r="J8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -24585,7 +25835,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:1:7:JINGXIN_E</v>
+        <v>2016:1:2:4:JINGXIN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -24664,7 +25914,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:MUZHA_E</v>
+        <v>2016:1:2:4:MUZHA_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -24743,7 +25993,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:JINGXIN_S</v>
+        <v>2016:1:2:4:JINGXIN_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -24822,7 +26072,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:MUZHA_S</v>
+        <v>2016:1:2:4:MUZHA_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -24983,7 +26233,7 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="37"/>
+      <c r="T17" s="30"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -24994,7 +26244,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:1:7:XINDIAN_E</v>
+        <v>2016:1:2:4:XINDIAN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -25073,7 +26323,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:1:7:ANKANG_E</v>
+        <v>2016:1:2:4:ANKANG_E</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -25152,7 +26402,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:1:7:XINDIAN_S</v>
+        <v>2016:1:2:4:XINDIAN_S</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -25324,7 +26574,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C26" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A23)</f>
-        <v>2016:1:1:7:ZHONGHE_2_E</v>
+        <v>2016:1:2:4:ZHONGHE_2_E</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -25403,7 +26653,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:ZHONGHE_2_S</v>
+        <v>2016:1:2:4:ZHONGHE_2_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -25482,7 +26732,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:ZHONGHE_1_E</v>
+        <v>2016:1:2:4:ZHONGHE_1_E</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -25561,7 +26811,7 @@
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:1:7:YONGHE_S</v>
+        <v>2016:1:2:4:YONGHE_S</v>
       </c>
       <c r="D26" s="11" t="e">
         <f>MATCH($C26,[1]report_data!$A:$A,0)</f>
@@ -25714,17 +26964,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="P1:P8"/>
+    <mergeCell ref="Q1:Q8"/>
+    <mergeCell ref="R1:R8"/>
+    <mergeCell ref="S1:S8"/>
+    <mergeCell ref="T1:T8"/>
     <mergeCell ref="O1:O8"/>
     <mergeCell ref="E1:I8"/>
     <mergeCell ref="K1:K8"/>
     <mergeCell ref="L1:L8"/>
     <mergeCell ref="M1:M8"/>
     <mergeCell ref="N1:N8"/>
-    <mergeCell ref="P1:P8"/>
-    <mergeCell ref="Q1:Q8"/>
-    <mergeCell ref="R1:R8"/>
-    <mergeCell ref="S1:S8"/>
-    <mergeCell ref="T1:T8"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:L13 K18:L20">
     <cfRule type="cellIs" dxfId="324" priority="116" operator="lessThan">

--- a/report/Debug/report_sheet_new.xlsx
+++ b/report/Debug/report_sheet_new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="7965" yWindow="-120" windowWidth="10815" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROLS" sheetId="4" r:id="rId1"/>
@@ -9166,19 +9166,19 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>2016:1:2:4:SANCHONG_E</v>
+            <v>2016:1:2:4:OFFICE_E</v>
           </cell>
           <cell r="B21">
             <v>0</v>
           </cell>
           <cell r="C21">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="D21">
             <v>0</v>
           </cell>
           <cell r="E21">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="F21">
             <v>0</v>
@@ -9190,16 +9190,16 @@
             <v>0</v>
           </cell>
           <cell r="I21">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="J21">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="K21">
-            <v>6</v>
+            <v>1</v>
           </cell>
           <cell r="L21">
-            <v>2</v>
+            <v>12</v>
           </cell>
           <cell r="M21">
             <v>3</v>
@@ -9216,19 +9216,19 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>2016:1:2:4:SANCHONG_S</v>
+            <v>2016:1:2:4:SANCHONG_E</v>
           </cell>
           <cell r="B22">
             <v>0</v>
           </cell>
           <cell r="C22">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D22">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="E22">
-            <v>2</v>
+            <v>4</v>
           </cell>
           <cell r="F22">
             <v>0</v>
@@ -9240,22 +9240,22 @@
             <v>0</v>
           </cell>
           <cell r="I22">
-            <v>3</v>
+            <v>4</v>
           </cell>
           <cell r="J22">
             <v>0</v>
           </cell>
           <cell r="K22">
-            <v>2</v>
+            <v>6</v>
           </cell>
           <cell r="L22">
             <v>2</v>
           </cell>
           <cell r="M22">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="N22">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="O22">
             <v>0</v>
@@ -9266,13 +9266,13 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>2016:1:2:4:SHILIN_E</v>
+            <v>2016:1:2:4:SANCHONG_S</v>
           </cell>
           <cell r="B23">
             <v>0</v>
           </cell>
           <cell r="C23">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="D23">
             <v>1</v>
@@ -9290,19 +9290,19 @@
             <v>0</v>
           </cell>
           <cell r="I23">
-            <v>7</v>
+            <v>3</v>
           </cell>
           <cell r="J23">
             <v>0</v>
           </cell>
           <cell r="K23">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="L23">
-            <v>15</v>
+            <v>2</v>
           </cell>
           <cell r="M23">
-            <v>4</v>
+            <v>0</v>
           </cell>
           <cell r="N23">
             <v>1</v>
@@ -9316,7 +9316,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>2016:1:2:4:SHILIN_S</v>
+            <v>2016:1:2:4:SHILIN_E</v>
           </cell>
           <cell r="B24">
             <v>0</v>
@@ -9325,37 +9325,37 @@
             <v>0</v>
           </cell>
           <cell r="D24">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="E24">
+            <v>2</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+          <cell r="G24">
+            <v>0</v>
+          </cell>
+          <cell r="H24">
+            <v>0</v>
+          </cell>
+          <cell r="I24">
+            <v>7</v>
+          </cell>
+          <cell r="J24">
+            <v>0</v>
+          </cell>
+          <cell r="K24">
+            <v>4</v>
+          </cell>
+          <cell r="L24">
+            <v>15</v>
+          </cell>
+          <cell r="M24">
+            <v>4</v>
+          </cell>
+          <cell r="N24">
             <v>1</v>
-          </cell>
-          <cell r="F24">
-            <v>0</v>
-          </cell>
-          <cell r="G24">
-            <v>0</v>
-          </cell>
-          <cell r="H24">
-            <v>0</v>
-          </cell>
-          <cell r="I24">
-            <v>1</v>
-          </cell>
-          <cell r="J24">
-            <v>0</v>
-          </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0</v>
-          </cell>
-          <cell r="M24">
-            <v>0</v>
-          </cell>
-          <cell r="N24">
-            <v>0</v>
           </cell>
           <cell r="O24">
             <v>0</v>
@@ -9366,46 +9366,46 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>2016:1:2:4:SONGSHAN_E</v>
+            <v>2016:1:2:4:SHILIN_S</v>
           </cell>
           <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
             <v>1</v>
           </cell>
-          <cell r="C25">
-            <v>0</v>
-          </cell>
-          <cell r="D25">
-            <v>4</v>
-          </cell>
-          <cell r="E25">
-            <v>2</v>
-          </cell>
           <cell r="F25">
+            <v>0</v>
+          </cell>
+          <cell r="G25">
+            <v>0</v>
+          </cell>
+          <cell r="H25">
+            <v>0</v>
+          </cell>
+          <cell r="I25">
             <v>1</v>
           </cell>
-          <cell r="G25">
-            <v>1</v>
-          </cell>
-          <cell r="H25">
-            <v>0</v>
-          </cell>
-          <cell r="I25">
-            <v>13</v>
-          </cell>
           <cell r="J25">
             <v>0</v>
           </cell>
           <cell r="K25">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="L25">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="M25">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="N25">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="O25">
             <v>0</v>
@@ -9416,46 +9416,46 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>2016:1:2:4:TIANMU_E</v>
+            <v>2016:1:2:4:SONGSHAN_E</v>
           </cell>
           <cell r="B26">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="C26">
             <v>0</v>
           </cell>
           <cell r="D26">
+            <v>4</v>
+          </cell>
+          <cell r="E26">
+            <v>2</v>
+          </cell>
+          <cell r="F26">
             <v>1</v>
           </cell>
-          <cell r="E26">
+          <cell r="G26">
             <v>1</v>
           </cell>
-          <cell r="F26">
-            <v>0</v>
-          </cell>
-          <cell r="G26">
-            <v>0</v>
-          </cell>
           <cell r="H26">
             <v>0</v>
           </cell>
           <cell r="I26">
-            <v>2</v>
+            <v>13</v>
           </cell>
           <cell r="J26">
             <v>0</v>
           </cell>
           <cell r="K26">
+            <v>9</v>
+          </cell>
+          <cell r="L26">
+            <v>7</v>
+          </cell>
+          <cell r="M26">
+            <v>7</v>
+          </cell>
+          <cell r="N26">
             <v>3</v>
-          </cell>
-          <cell r="L26">
-            <v>3</v>
-          </cell>
-          <cell r="M26">
-            <v>1</v>
-          </cell>
-          <cell r="N26">
-            <v>1</v>
           </cell>
           <cell r="O26">
             <v>0</v>
@@ -9466,7 +9466,7 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>2016:1:2:4:WANDA_A_S</v>
+            <v>2016:1:2:4:TIANMU_E</v>
           </cell>
           <cell r="B27">
             <v>0</v>
@@ -9475,10 +9475,10 @@
             <v>0</v>
           </cell>
           <cell r="D27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="E27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="F27">
             <v>0</v>
@@ -9490,22 +9490,22 @@
             <v>0</v>
           </cell>
           <cell r="I27">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="J27">
             <v>0</v>
           </cell>
           <cell r="K27">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="L27">
-            <v>4</v>
+            <v>3</v>
           </cell>
           <cell r="M27">
             <v>1</v>
           </cell>
           <cell r="N27">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="O27">
             <v>0</v>
@@ -9516,7 +9516,7 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>2016:1:2:4:WANDA_B_S</v>
+            <v>2016:1:2:4:WANDA_A_S</v>
           </cell>
           <cell r="B28">
             <v>0</v>
@@ -9528,7 +9528,7 @@
             <v>0</v>
           </cell>
           <cell r="E28">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="F28">
             <v>0</v>
@@ -9540,16 +9540,16 @@
             <v>0</v>
           </cell>
           <cell r="I28">
+            <v>0</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
             <v>4</v>
-          </cell>
-          <cell r="J28">
-            <v>0</v>
-          </cell>
-          <cell r="K28">
-            <v>1</v>
-          </cell>
-          <cell r="L28">
-            <v>5</v>
           </cell>
           <cell r="M28">
             <v>1</v>
@@ -9566,13 +9566,13 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>2016:1:2:4:WANDA_E</v>
+            <v>2016:1:2:4:WANDA_B_S</v>
           </cell>
           <cell r="B29">
             <v>0</v>
           </cell>
           <cell r="C29">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="D29">
             <v>0</v>
@@ -9590,22 +9590,22 @@
             <v>0</v>
           </cell>
           <cell r="I29">
+            <v>4</v>
+          </cell>
+          <cell r="J29">
+            <v>0</v>
+          </cell>
+          <cell r="K29">
+            <v>1</v>
+          </cell>
+          <cell r="L29">
             <v>5</v>
           </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>3</v>
-          </cell>
-          <cell r="L29">
-            <v>8</v>
-          </cell>
           <cell r="M29">
-            <v>3</v>
+            <v>1</v>
           </cell>
           <cell r="N29">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="O29">
             <v>0</v>
@@ -9616,7 +9616,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>2016:1:2:4:XINAN_S</v>
+            <v>2016:1:2:4:WANDA_E</v>
           </cell>
           <cell r="B30">
             <v>0</v>
@@ -9628,34 +9628,34 @@
             <v>0</v>
           </cell>
           <cell r="E30">
+            <v>2</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30">
+            <v>0</v>
+          </cell>
+          <cell r="H30">
+            <v>0</v>
+          </cell>
+          <cell r="I30">
+            <v>5</v>
+          </cell>
+          <cell r="J30">
+            <v>0</v>
+          </cell>
+          <cell r="K30">
+            <v>3</v>
+          </cell>
+          <cell r="L30">
+            <v>8</v>
+          </cell>
+          <cell r="M30">
+            <v>3</v>
+          </cell>
+          <cell r="N30">
             <v>1</v>
-          </cell>
-          <cell r="F30">
-            <v>1</v>
-          </cell>
-          <cell r="G30">
-            <v>1</v>
-          </cell>
-          <cell r="H30">
-            <v>0</v>
-          </cell>
-          <cell r="I30">
-            <v>8</v>
-          </cell>
-          <cell r="J30">
-            <v>0</v>
-          </cell>
-          <cell r="K30">
-            <v>1</v>
-          </cell>
-          <cell r="L30">
-            <v>5</v>
-          </cell>
-          <cell r="M30">
-            <v>5</v>
-          </cell>
-          <cell r="N30">
-            <v>3</v>
           </cell>
           <cell r="O30">
             <v>0</v>
@@ -9666,46 +9666,46 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>2016:1:2:4:XIZHI_A_E</v>
+            <v>2016:1:2:4:XINAN_S</v>
           </cell>
           <cell r="B31">
             <v>0</v>
           </cell>
           <cell r="C31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="D31">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="E31">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="F31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="G31">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H31">
             <v>0</v>
           </cell>
           <cell r="I31">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="J31">
             <v>0</v>
           </cell>
           <cell r="K31">
-            <v>7</v>
+            <v>1</v>
           </cell>
           <cell r="L31">
             <v>5</v>
           </cell>
           <cell r="M31">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="N31">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="O31">
             <v>0</v>
@@ -9716,7 +9716,7 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>2016:1:2:4:XIZHI_B_E</v>
+            <v>2016:1:2:4:XIZHI_A_E</v>
           </cell>
           <cell r="B32">
             <v>0</v>
@@ -9725,37 +9725,37 @@
             <v>0</v>
           </cell>
           <cell r="D32">
+            <v>2</v>
+          </cell>
+          <cell r="E32">
+            <v>2</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32">
+            <v>0</v>
+          </cell>
+          <cell r="H32">
+            <v>0</v>
+          </cell>
+          <cell r="I32">
+            <v>4</v>
+          </cell>
+          <cell r="J32">
+            <v>0</v>
+          </cell>
+          <cell r="K32">
+            <v>7</v>
+          </cell>
+          <cell r="L32">
+            <v>5</v>
+          </cell>
+          <cell r="M32">
             <v>1</v>
           </cell>
-          <cell r="E32">
-            <v>3</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-          <cell r="G32">
-            <v>0</v>
-          </cell>
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-          <cell r="I32">
-            <v>6</v>
-          </cell>
-          <cell r="J32">
-            <v>0</v>
-          </cell>
-          <cell r="K32">
-            <v>3</v>
-          </cell>
-          <cell r="L32">
-            <v>11</v>
-          </cell>
-          <cell r="M32">
-            <v>3</v>
-          </cell>
           <cell r="N32">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="O32">
             <v>0</v>
@@ -9766,7 +9766,7 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>2016:1:2:4:XIZHI_S</v>
+            <v>2016:1:2:4:XIZHI_B_E</v>
           </cell>
           <cell r="B33">
             <v>0</v>
@@ -9778,19 +9778,19 @@
             <v>1</v>
           </cell>
           <cell r="E33">
-            <v>2</v>
+            <v>3</v>
           </cell>
           <cell r="F33">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G33">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="H33">
             <v>0</v>
           </cell>
           <cell r="I33">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="J33">
             <v>0</v>
@@ -9799,13 +9799,13 @@
             <v>3</v>
           </cell>
           <cell r="L33">
+            <v>11</v>
+          </cell>
+          <cell r="M33">
             <v>3</v>
           </cell>
-          <cell r="M33">
-            <v>0</v>
-          </cell>
           <cell r="N33">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="O33">
             <v>0</v>
@@ -9816,7 +9816,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>2016:1:2:4:YILAN_S</v>
+            <v>2016:1:2:4:XIZHI_S</v>
           </cell>
           <cell r="B34">
             <v>0</v>
@@ -9828,34 +9828,34 @@
             <v>1</v>
           </cell>
           <cell r="E34">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="F34">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="G34">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H34">
             <v>0</v>
           </cell>
           <cell r="I34">
-            <v>1</v>
+            <v>5</v>
           </cell>
           <cell r="J34">
             <v>0</v>
           </cell>
           <cell r="K34">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="L34">
-            <v>6</v>
+            <v>3</v>
           </cell>
           <cell r="M34">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="N34">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="O34">
             <v>0</v>
@@ -9866,51 +9866,1401 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
+            <v>2016:1:2:4:YILAN_S</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+          <cell r="D35">
+            <v>1</v>
+          </cell>
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+          <cell r="G35">
+            <v>0</v>
+          </cell>
+          <cell r="H35">
+            <v>0</v>
+          </cell>
+          <cell r="I35">
+            <v>1</v>
+          </cell>
+          <cell r="J35">
+            <v>0</v>
+          </cell>
+          <cell r="K35">
+            <v>0</v>
+          </cell>
+          <cell r="L35">
+            <v>6</v>
+          </cell>
+          <cell r="M35">
+            <v>1</v>
+          </cell>
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+          <cell r="O35">
+            <v>0</v>
+          </cell>
+          <cell r="P35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
             <v>2016:1:2:4:ZHUWEI_E</v>
           </cell>
-          <cell r="B35">
+          <cell r="B36">
             <v>1</v>
           </cell>
-          <cell r="C35">
-            <v>0</v>
-          </cell>
-          <cell r="D35">
-            <v>0</v>
-          </cell>
-          <cell r="E35">
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
             <v>2</v>
           </cell>
-          <cell r="F35">
-            <v>0</v>
-          </cell>
-          <cell r="G35">
-            <v>0</v>
-          </cell>
-          <cell r="H35">
-            <v>0</v>
-          </cell>
-          <cell r="I35">
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+          <cell r="G36">
+            <v>0</v>
+          </cell>
+          <cell r="H36">
+            <v>0</v>
+          </cell>
+          <cell r="I36">
             <v>3</v>
           </cell>
-          <cell r="J35">
-            <v>0</v>
-          </cell>
-          <cell r="K35">
+          <cell r="J36">
+            <v>0</v>
+          </cell>
+          <cell r="K36">
             <v>1</v>
           </cell>
-          <cell r="L35">
+          <cell r="L36">
             <v>2</v>
           </cell>
-          <cell r="M35">
-            <v>0</v>
-          </cell>
-          <cell r="N35">
+          <cell r="M36">
+            <v>0</v>
+          </cell>
+          <cell r="N36">
             <v>2</v>
           </cell>
-          <cell r="O35">
-            <v>0</v>
-          </cell>
-          <cell r="P35">
+          <cell r="O36">
+            <v>0</v>
+          </cell>
+          <cell r="P36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>2016:1:2:7:BEITOU_E</v>
+          </cell>
+          <cell r="B37">
+            <v>0</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+          <cell r="E37">
+            <v>1</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+          <cell r="G37">
+            <v>0</v>
+          </cell>
+          <cell r="H37">
+            <v>0</v>
+          </cell>
+          <cell r="I37">
+            <v>1</v>
+          </cell>
+          <cell r="J37">
+            <v>0</v>
+          </cell>
+          <cell r="K37">
+            <v>4</v>
+          </cell>
+          <cell r="L37">
+            <v>4</v>
+          </cell>
+          <cell r="M37">
+            <v>1</v>
+          </cell>
+          <cell r="N37">
+            <v>4</v>
+          </cell>
+          <cell r="O37">
+            <v>1</v>
+          </cell>
+          <cell r="P37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>2016:1:2:7:BEITOU_S</v>
+          </cell>
+          <cell r="B38">
+            <v>0</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+          <cell r="D38">
+            <v>2</v>
+          </cell>
+          <cell r="E38">
+            <v>3</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38">
+            <v>0</v>
+          </cell>
+          <cell r="H38">
+            <v>0</v>
+          </cell>
+          <cell r="I38">
+            <v>12</v>
+          </cell>
+          <cell r="J38">
+            <v>2</v>
+          </cell>
+          <cell r="K38">
+            <v>7</v>
+          </cell>
+          <cell r="L38">
+            <v>17</v>
+          </cell>
+          <cell r="M38">
+            <v>11</v>
+          </cell>
+          <cell r="N38">
+            <v>9</v>
+          </cell>
+          <cell r="O38">
+            <v>2</v>
+          </cell>
+          <cell r="P38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>2016:1:2:7:DANSHUI_E</v>
+          </cell>
+          <cell r="B39">
+            <v>1</v>
+          </cell>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+          <cell r="D39">
+            <v>2</v>
+          </cell>
+          <cell r="E39">
+            <v>3</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39">
+            <v>1</v>
+          </cell>
+          <cell r="H39">
+            <v>1</v>
+          </cell>
+          <cell r="I39">
+            <v>6</v>
+          </cell>
+          <cell r="J39">
+            <v>3</v>
+          </cell>
+          <cell r="K39">
+            <v>9</v>
+          </cell>
+          <cell r="L39">
+            <v>12</v>
+          </cell>
+          <cell r="M39">
+            <v>8</v>
+          </cell>
+          <cell r="N39">
+            <v>3</v>
+          </cell>
+          <cell r="O39">
+            <v>3</v>
+          </cell>
+          <cell r="P39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>2016:1:2:7:JILONG_A_E</v>
+          </cell>
+          <cell r="B40">
+            <v>0</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>2</v>
+          </cell>
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40">
+            <v>0</v>
+          </cell>
+          <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
+            <v>3</v>
+          </cell>
+          <cell r="J40">
+            <v>2</v>
+          </cell>
+          <cell r="K40">
+            <v>10</v>
+          </cell>
+          <cell r="L40">
+            <v>3</v>
+          </cell>
+          <cell r="M40">
+            <v>5</v>
+          </cell>
+          <cell r="N40">
+            <v>8</v>
+          </cell>
+          <cell r="O40">
+            <v>1</v>
+          </cell>
+          <cell r="P40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>2016:1:2:7:JILONG_B_E</v>
+          </cell>
+          <cell r="B41">
+            <v>0</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>3</v>
+          </cell>
+          <cell r="F41">
+            <v>2</v>
+          </cell>
+          <cell r="G41">
+            <v>0</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+          <cell r="I41">
+            <v>3</v>
+          </cell>
+          <cell r="J41">
+            <v>1</v>
+          </cell>
+          <cell r="K41">
+            <v>14</v>
+          </cell>
+          <cell r="L41">
+            <v>7</v>
+          </cell>
+          <cell r="M41">
+            <v>4</v>
+          </cell>
+          <cell r="N41">
+            <v>16</v>
+          </cell>
+          <cell r="O41">
+            <v>3</v>
+          </cell>
+          <cell r="P41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>2016:1:2:7:LUODONG_A_E</v>
+          </cell>
+          <cell r="B42">
+            <v>0</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>1</v>
+          </cell>
+          <cell r="F42">
+            <v>2</v>
+          </cell>
+          <cell r="G42">
+            <v>1</v>
+          </cell>
+          <cell r="H42">
+            <v>1</v>
+          </cell>
+          <cell r="I42">
+            <v>3</v>
+          </cell>
+          <cell r="J42">
+            <v>0</v>
+          </cell>
+          <cell r="K42">
+            <v>8</v>
+          </cell>
+          <cell r="L42">
+            <v>5</v>
+          </cell>
+          <cell r="M42">
+            <v>2</v>
+          </cell>
+          <cell r="N42">
+            <v>5</v>
+          </cell>
+          <cell r="O42">
+            <v>0</v>
+          </cell>
+          <cell r="P42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>2016:1:2:7:LUODONG_B_E</v>
+          </cell>
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>5</v>
+          </cell>
+          <cell r="F43">
+            <v>2</v>
+          </cell>
+          <cell r="G43">
+            <v>1</v>
+          </cell>
+          <cell r="H43">
+            <v>1</v>
+          </cell>
+          <cell r="I43">
+            <v>7</v>
+          </cell>
+          <cell r="J43">
+            <v>1</v>
+          </cell>
+          <cell r="K43">
+            <v>11</v>
+          </cell>
+          <cell r="L43">
+            <v>10</v>
+          </cell>
+          <cell r="M43">
+            <v>7</v>
+          </cell>
+          <cell r="N43">
+            <v>5</v>
+          </cell>
+          <cell r="O43">
+            <v>0</v>
+          </cell>
+          <cell r="P43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>2016:1:2:7:LUZHOU_E</v>
+          </cell>
+          <cell r="B44">
+            <v>0</v>
+          </cell>
+          <cell r="C44">
+            <v>1</v>
+          </cell>
+          <cell r="D44">
+            <v>2</v>
+          </cell>
+          <cell r="E44">
+            <v>2</v>
+          </cell>
+          <cell r="F44">
+            <v>1</v>
+          </cell>
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
+          <cell r="I44">
+            <v>5</v>
+          </cell>
+          <cell r="J44">
+            <v>3</v>
+          </cell>
+          <cell r="K44">
+            <v>7</v>
+          </cell>
+          <cell r="L44">
+            <v>6</v>
+          </cell>
+          <cell r="M44">
+            <v>6</v>
+          </cell>
+          <cell r="N44">
+            <v>6</v>
+          </cell>
+          <cell r="O44">
+            <v>3</v>
+          </cell>
+          <cell r="P44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>2016:1:2:7:NEIHU_E</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+          <cell r="C45">
+            <v>1</v>
+          </cell>
+          <cell r="D45">
+            <v>1</v>
+          </cell>
+          <cell r="E45">
+            <v>1</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
+          <cell r="I45">
+            <v>4</v>
+          </cell>
+          <cell r="J45">
+            <v>2</v>
+          </cell>
+          <cell r="K45">
+            <v>4</v>
+          </cell>
+          <cell r="L45">
+            <v>7</v>
+          </cell>
+          <cell r="M45">
+            <v>2</v>
+          </cell>
+          <cell r="N45">
+            <v>4</v>
+          </cell>
+          <cell r="O45">
+            <v>1</v>
+          </cell>
+          <cell r="P45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>2016:1:2:7:NEIHU_S</v>
+          </cell>
+          <cell r="B46">
+            <v>0</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>1</v>
+          </cell>
+          <cell r="E46">
+            <v>6</v>
+          </cell>
+          <cell r="F46">
+            <v>5</v>
+          </cell>
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>7</v>
+          </cell>
+          <cell r="J46">
+            <v>1</v>
+          </cell>
+          <cell r="K46">
+            <v>4</v>
+          </cell>
+          <cell r="L46">
+            <v>11</v>
+          </cell>
+          <cell r="M46">
+            <v>5</v>
+          </cell>
+          <cell r="N46">
+            <v>2</v>
+          </cell>
+          <cell r="O46">
+            <v>2</v>
+          </cell>
+          <cell r="P46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>2016:1:2:7:NORTH_JINHUA_E</v>
+          </cell>
+          <cell r="B47">
+            <v>0</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>2</v>
+          </cell>
+          <cell r="E47">
+            <v>3</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
+          <cell r="I47">
+            <v>8</v>
+          </cell>
+          <cell r="J47">
+            <v>2</v>
+          </cell>
+          <cell r="K47">
+            <v>5</v>
+          </cell>
+          <cell r="L47">
+            <v>16</v>
+          </cell>
+          <cell r="M47">
+            <v>9</v>
+          </cell>
+          <cell r="N47">
+            <v>4</v>
+          </cell>
+          <cell r="O47">
+            <v>0</v>
+          </cell>
+          <cell r="P47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>2016:1:2:7:OFFICE_E</v>
+          </cell>
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>2</v>
+          </cell>
+          <cell r="H48">
+            <v>2</v>
+          </cell>
+          <cell r="I48">
+            <v>0</v>
+          </cell>
+          <cell r="J48">
+            <v>2</v>
+          </cell>
+          <cell r="K48">
+            <v>6</v>
+          </cell>
+          <cell r="L48">
+            <v>8</v>
+          </cell>
+          <cell r="M48">
+            <v>3</v>
+          </cell>
+          <cell r="N48">
+            <v>3</v>
+          </cell>
+          <cell r="O48">
+            <v>0</v>
+          </cell>
+          <cell r="P48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>2016:1:2:7:SANCHONG_E</v>
+          </cell>
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+          <cell r="D49">
+            <v>3</v>
+          </cell>
+          <cell r="E49">
+            <v>1</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>4</v>
+          </cell>
+          <cell r="J49">
+            <v>4</v>
+          </cell>
+          <cell r="K49">
+            <v>10</v>
+          </cell>
+          <cell r="L49">
+            <v>4</v>
+          </cell>
+          <cell r="M49">
+            <v>4</v>
+          </cell>
+          <cell r="N49">
+            <v>2</v>
+          </cell>
+          <cell r="O49">
+            <v>1</v>
+          </cell>
+          <cell r="P49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>2016:1:2:7:SANCHONG_S</v>
+          </cell>
+          <cell r="B50">
+            <v>0</v>
+          </cell>
+          <cell r="C50">
+            <v>1</v>
+          </cell>
+          <cell r="D50">
+            <v>2</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>0</v>
+          </cell>
+          <cell r="I50">
+            <v>3</v>
+          </cell>
+          <cell r="J50">
+            <v>2</v>
+          </cell>
+          <cell r="K50">
+            <v>6</v>
+          </cell>
+          <cell r="L50">
+            <v>6</v>
+          </cell>
+          <cell r="M50">
+            <v>1</v>
+          </cell>
+          <cell r="N50">
+            <v>2</v>
+          </cell>
+          <cell r="O50">
+            <v>1</v>
+          </cell>
+          <cell r="P50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>2016:1:2:7:SHILIN_E</v>
+          </cell>
+          <cell r="B51">
+            <v>0</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+          <cell r="D51">
+            <v>1</v>
+          </cell>
+          <cell r="E51">
+            <v>1</v>
+          </cell>
+          <cell r="F51">
+            <v>1</v>
+          </cell>
+          <cell r="G51">
+            <v>0</v>
+          </cell>
+          <cell r="H51">
+            <v>0</v>
+          </cell>
+          <cell r="I51">
+            <v>8</v>
+          </cell>
+          <cell r="J51">
+            <v>2</v>
+          </cell>
+          <cell r="K51">
+            <v>9</v>
+          </cell>
+          <cell r="L51">
+            <v>30</v>
+          </cell>
+          <cell r="M51">
+            <v>6</v>
+          </cell>
+          <cell r="N51">
+            <v>4</v>
+          </cell>
+          <cell r="O51">
+            <v>0</v>
+          </cell>
+          <cell r="P51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>2016:1:2:7:SHILIN_S</v>
+          </cell>
+          <cell r="B52">
+            <v>0</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>1</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52">
+            <v>0</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>1</v>
+          </cell>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
+          <cell r="K52">
+            <v>0</v>
+          </cell>
+          <cell r="L52">
+            <v>3</v>
+          </cell>
+          <cell r="M52">
+            <v>1</v>
+          </cell>
+          <cell r="N52">
+            <v>1</v>
+          </cell>
+          <cell r="O52">
+            <v>0</v>
+          </cell>
+          <cell r="P52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>2016:1:2:7:SONGSHAN_E</v>
+          </cell>
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+          <cell r="D53">
+            <v>4</v>
+          </cell>
+          <cell r="E53">
+            <v>4</v>
+          </cell>
+          <cell r="F53">
+            <v>1</v>
+          </cell>
+          <cell r="G53">
+            <v>0</v>
+          </cell>
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>14</v>
+          </cell>
+          <cell r="J53">
+            <v>2</v>
+          </cell>
+          <cell r="K53">
+            <v>11</v>
+          </cell>
+          <cell r="L53">
+            <v>14</v>
+          </cell>
+          <cell r="M53">
+            <v>9</v>
+          </cell>
+          <cell r="N53">
+            <v>7</v>
+          </cell>
+          <cell r="O53">
+            <v>0</v>
+          </cell>
+          <cell r="P53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>2016:1:2:7:TIANMU_E</v>
+          </cell>
+          <cell r="B54">
+            <v>0</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+          <cell r="E54">
+            <v>1</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54">
+            <v>0</v>
+          </cell>
+          <cell r="H54">
+            <v>0</v>
+          </cell>
+          <cell r="I54">
+            <v>2</v>
+          </cell>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
+          <cell r="K54">
+            <v>4</v>
+          </cell>
+          <cell r="L54">
+            <v>9</v>
+          </cell>
+          <cell r="M54">
+            <v>1</v>
+          </cell>
+          <cell r="N54">
+            <v>1</v>
+          </cell>
+          <cell r="O54">
+            <v>1</v>
+          </cell>
+          <cell r="P54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>2016:1:2:7:WANDA_A_S</v>
+          </cell>
+          <cell r="B55">
+            <v>0</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+          <cell r="H55">
+            <v>0</v>
+          </cell>
+          <cell r="I55">
+            <v>1</v>
+          </cell>
+          <cell r="J55">
+            <v>0</v>
+          </cell>
+          <cell r="K55">
+            <v>1</v>
+          </cell>
+          <cell r="L55">
+            <v>8</v>
+          </cell>
+          <cell r="M55">
+            <v>3</v>
+          </cell>
+          <cell r="N55">
+            <v>1</v>
+          </cell>
+          <cell r="O55">
+            <v>0</v>
+          </cell>
+          <cell r="P55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>2016:1:2:7:WANDA_B_S</v>
+          </cell>
+          <cell r="B56">
+            <v>0</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+          <cell r="D56">
+            <v>1</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
+            <v>0</v>
+          </cell>
+          <cell r="I56">
+            <v>4</v>
+          </cell>
+          <cell r="J56">
+            <v>1</v>
+          </cell>
+          <cell r="K56">
+            <v>4</v>
+          </cell>
+          <cell r="L56">
+            <v>10</v>
+          </cell>
+          <cell r="M56">
+            <v>2</v>
+          </cell>
+          <cell r="N56">
+            <v>1</v>
+          </cell>
+          <cell r="O56">
+            <v>0</v>
+          </cell>
+          <cell r="P56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>2016:1:2:7:WANDA_E</v>
+          </cell>
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+          <cell r="C57">
+            <v>1</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>3</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+          <cell r="H57">
+            <v>0</v>
+          </cell>
+          <cell r="I57">
+            <v>8</v>
+          </cell>
+          <cell r="J57">
+            <v>1</v>
+          </cell>
+          <cell r="K57">
+            <v>5</v>
+          </cell>
+          <cell r="L57">
+            <v>18</v>
+          </cell>
+          <cell r="M57">
+            <v>11</v>
+          </cell>
+          <cell r="N57">
+            <v>5</v>
+          </cell>
+          <cell r="O57">
+            <v>0</v>
+          </cell>
+          <cell r="P57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>2016:1:2:7:XINAN_S</v>
+          </cell>
+          <cell r="B58">
+            <v>0</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>1</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>1</v>
+          </cell>
+          <cell r="H58">
+            <v>1</v>
+          </cell>
+          <cell r="I58">
+            <v>8</v>
+          </cell>
+          <cell r="J58">
+            <v>0</v>
+          </cell>
+          <cell r="K58">
+            <v>4</v>
+          </cell>
+          <cell r="L58">
+            <v>6</v>
+          </cell>
+          <cell r="M58">
+            <v>6</v>
+          </cell>
+          <cell r="N58">
+            <v>4</v>
+          </cell>
+          <cell r="O58">
+            <v>1</v>
+          </cell>
+          <cell r="P58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>2016:1:2:7:XIZHI_A_E</v>
+          </cell>
+          <cell r="B59">
+            <v>0</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>3</v>
+          </cell>
+          <cell r="E59">
+            <v>1</v>
+          </cell>
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+          <cell r="G59">
+            <v>0</v>
+          </cell>
+          <cell r="H59">
+            <v>0</v>
+          </cell>
+          <cell r="I59">
+            <v>4</v>
+          </cell>
+          <cell r="J59">
+            <v>3</v>
+          </cell>
+          <cell r="K59">
+            <v>9</v>
+          </cell>
+          <cell r="L59">
+            <v>7</v>
+          </cell>
+          <cell r="M59">
+            <v>5</v>
+          </cell>
+          <cell r="N59">
+            <v>7</v>
+          </cell>
+          <cell r="O59">
+            <v>2</v>
+          </cell>
+          <cell r="P59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>2016:1:2:7:XIZHI_B_E</v>
+          </cell>
+          <cell r="B60">
+            <v>0</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="E60">
+            <v>2</v>
+          </cell>
+          <cell r="F60">
+            <v>1</v>
+          </cell>
+          <cell r="G60">
+            <v>0</v>
+          </cell>
+          <cell r="H60">
+            <v>0</v>
+          </cell>
+          <cell r="I60">
+            <v>5</v>
+          </cell>
+          <cell r="J60">
+            <v>1</v>
+          </cell>
+          <cell r="K60">
+            <v>7</v>
+          </cell>
+          <cell r="L60">
+            <v>19</v>
+          </cell>
+          <cell r="M60">
+            <v>8</v>
+          </cell>
+          <cell r="N60">
+            <v>1</v>
+          </cell>
+          <cell r="O60">
+            <v>0</v>
+          </cell>
+          <cell r="P60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>2016:1:2:7:YILAN_S</v>
+          </cell>
+          <cell r="B61">
+            <v>0</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+          <cell r="D61">
+            <v>1</v>
+          </cell>
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+          <cell r="F61">
+            <v>1</v>
+          </cell>
+          <cell r="G61">
+            <v>0</v>
+          </cell>
+          <cell r="H61">
+            <v>0</v>
+          </cell>
+          <cell r="I61">
+            <v>1</v>
+          </cell>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
+          <cell r="K61">
+            <v>0</v>
+          </cell>
+          <cell r="L61">
+            <v>11</v>
+          </cell>
+          <cell r="M61">
+            <v>1</v>
+          </cell>
+          <cell r="N61">
+            <v>1</v>
+          </cell>
+          <cell r="O61">
+            <v>2</v>
+          </cell>
+          <cell r="P61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>2016:1:2:7:ZHUWEI_E</v>
+          </cell>
+          <cell r="B62">
+            <v>1</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+          <cell r="D62">
+            <v>1</v>
+          </cell>
+          <cell r="E62">
+            <v>2</v>
+          </cell>
+          <cell r="F62">
+            <v>1</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>4</v>
+          </cell>
+          <cell r="J62">
+            <v>2</v>
+          </cell>
+          <cell r="K62">
+            <v>2</v>
+          </cell>
+          <cell r="L62">
+            <v>7</v>
+          </cell>
+          <cell r="M62">
+            <v>1</v>
+          </cell>
+          <cell r="N62">
+            <v>7</v>
+          </cell>
+          <cell r="O62">
+            <v>3</v>
+          </cell>
+          <cell r="P62">
             <v>0</v>
           </cell>
         </row>
@@ -10255,7 +11605,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10636,7 +11986,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:TUCHENG_E</v>
+        <v>2016:1:2:7:TUCHENG_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -10715,7 +12065,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:SANXIA_A</v>
+        <v>2016:1:2:7:SANXIA_A</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -10794,7 +12144,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TUCHENG_B_S</v>
+        <v>2016:1:2:7:TUCHENG_B_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -10966,7 +12316,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A17)</f>
-        <v>2016:1:2:4:DANFENG_E</v>
+        <v>2016:1:2:7:DANFENG_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -11045,7 +12395,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:2:4:SIYUAN_E</v>
+        <v>2016:1:2:7:SIYUAN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -11217,7 +12567,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f t="shared" ref="C21:C24" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:2:4:XINPU_S</v>
+        <v>2016:1:2:7:XINPU_S</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -11296,7 +12646,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:XINBAN_E</v>
+        <v>2016:1:2:7:XINBAN_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -11375,7 +12725,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:XINPU_S</v>
+        <v>2016:1:2:7:XINPU_S</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -11454,7 +12804,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:BANQIAO_S</v>
+        <v>2016:1:2:7:BANQIAO_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -11787,8 +13137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12153,11 +13503,11 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:SONGSHAN_E</v>
+        <v>2016:1:2:7:SONGSHAN_E</v>
       </c>
       <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12173,7 +13523,7 @@
       </c>
       <c r="H12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12184,7 +13534,7 @@
       </c>
       <c r="K12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12192,27 +13542,27 @@
       </c>
       <c r="M12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12232,7 +13582,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:SONGSHAN_S</v>
+        <v>2016:1:2:7:SONGSHAN_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -12311,74 +13661,74 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:NEIHU_E</v>
-      </c>
-      <c r="D14" s="11" t="e">
+        <v>2016:1:2:7:NEIHU_E</v>
+      </c>
+      <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="21" t="e">
+        <v>45</v>
+      </c>
+      <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="G14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="H14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="I14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="21" t="e">
+      <c r="K14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="N14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="O14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="21" t="e">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>4</v>
+      </c>
+      <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="21" t="e">
+        <v>1</v>
+      </c>
+      <c r="T14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -12390,11 +13740,11 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:NEIHU_S</v>
+        <v>2016:1:2:7:NEIHU_S</v>
       </c>
       <c r="D15" s="11">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12406,11 +13756,11 @@
       </c>
       <c r="G15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12421,7 +13771,7 @@
       </c>
       <c r="K15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12429,19 +13779,19 @@
       </c>
       <c r="M15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12449,11 +13799,11 @@
       </c>
       <c r="R15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12562,11 +13912,11 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:JILONG_A_E</v>
+        <v>2016:1:2:7:JILONG_A_E</v>
       </c>
       <c r="D18" s="11">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12601,31 +13951,31 @@
       </c>
       <c r="M18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12641,11 +13991,11 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:2:4:JILONG_B_E</v>
+        <v>2016:1:2:7:JILONG_B_E</v>
       </c>
       <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12672,7 +14022,7 @@
       </c>
       <c r="K19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12684,27 +14034,27 @@
       </c>
       <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12741,7 +14091,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="22">
         <f t="shared" ref="K20:T20" si="2">SUM(K18:K19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="22">
         <f t="shared" si="2"/>
@@ -12749,31 +14099,31 @@
       </c>
       <c r="M20" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="22">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P20" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R20" s="22">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="S20" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T20" s="22">
         <f t="shared" si="2"/>
@@ -12813,11 +14163,11 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" ref="C22" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:2:4:XIZHI_A_E</v>
+        <v>2016:1:2:7:XIZHI_A_E</v>
       </c>
       <c r="D22" s="11">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="E22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12829,11 +14179,11 @@
       </c>
       <c r="G22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12856,27 +14206,27 @@
       </c>
       <c r="N22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D22,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12892,11 +14242,11 @@
       </c>
       <c r="C23" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A23)</f>
-        <v>2016:1:2:4:XIZHI_B_E</v>
+        <v>2016:1:2:7:XIZHI_B_E</v>
       </c>
       <c r="D23" s="11">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12908,15 +14258,15 @@
       </c>
       <c r="G23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>302</v>
@@ -12931,27 +14281,27 @@
       </c>
       <c r="M23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D23,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -12971,74 +14321,74 @@
       </c>
       <c r="C24" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A24)</f>
-        <v>2016:1:2:4:XIZHI_S</v>
-      </c>
-      <c r="D24" s="11">
+        <v>2016:1:2:7:XIZHI_S</v>
+      </c>
+      <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
-        <v>33</v>
-      </c>
-      <c r="E24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="I24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="M24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="N24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="N24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="O24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="P24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="P24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="Q24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="R24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="S24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="S24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="21">
+        <v>#N/A</v>
+      </c>
+      <c r="T24" s="21" t="e">
         <f>INDEX([1]report_data!$A:$Z,$D24,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -13048,66 +14398,66 @@
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="22">
+      <c r="E25" s="22" t="e">
         <f>SUM(E22:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="22" t="e">
         <f t="shared" ref="F25:I25" si="4">SUM(F22:F24)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="22" t="e">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="H25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" s="22" t="e">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" s="22" t="e">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>#N/A</v>
       </c>
       <c r="J25" s="20"/>
-      <c r="K25" s="22">
+      <c r="K25" s="22" t="e">
         <f t="shared" ref="K25:T25" si="5">SUM(K22:K24)</f>
-        <v>1</v>
-      </c>
-      <c r="L25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="M25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="N25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="N25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="O25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="P25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="P25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="Q25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="R25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="S25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="S25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="22">
+        <v>#N/A</v>
+      </c>
+      <c r="T25" s="22" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -13143,15 +14493,15 @@
       </c>
       <c r="C27" s="11" t="str">
         <f t="shared" ref="C27:C30" si="6">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A27)</f>
-        <v>2016:1:2:4:LUODONG_A_E</v>
+        <v>2016:1:2:7:LUODONG_A_E</v>
       </c>
       <c r="D27" s="11">
         <f>MATCH($C27,[1]report_data!$A:$A,0)</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13174,15 +14524,15 @@
       </c>
       <c r="K27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13190,11 +14540,11 @@
       </c>
       <c r="O27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13202,7 +14552,7 @@
       </c>
       <c r="R27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S27" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D27,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13222,15 +14572,15 @@
       </c>
       <c r="C28" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:2:4:LUODONG_B_E</v>
+        <v>2016:1:2:7:LUODONG_B_E</v>
       </c>
       <c r="D28" s="11">
         <f>MATCH($C28,[1]report_data!$A:$A,0)</f>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13242,11 +14592,11 @@
       </c>
       <c r="H28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" s="11" t="s">
         <v>305</v>
@@ -13257,7 +14607,7 @@
       </c>
       <c r="L28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13265,23 +14615,23 @@
       </c>
       <c r="N28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D28,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13301,7 +14651,7 @@
       </c>
       <c r="C29" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:2:4:YILAN_E</v>
+        <v>2016:1:2:7:YILAN_E</v>
       </c>
       <c r="D29" s="11" t="e">
         <f>MATCH($C29,[1]report_data!$A:$A,0)</f>
@@ -13380,11 +14730,11 @@
       </c>
       <c r="C30" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>2016:1:2:4:YILAN_S</v>
+        <v>2016:1:2:7:YILAN_S</v>
       </c>
       <c r="D30" s="11">
         <f>MATCH($C30,[1]report_data!$A:$A,0)</f>
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="E30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13404,7 +14754,7 @@
       </c>
       <c r="I30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="11" t="s">
         <v>307</v>
@@ -13431,7 +14781,7 @@
       </c>
       <c r="P30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -13439,11 +14789,11 @@
       </c>
       <c r="R30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D30,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -14283,7 +15633,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:TAO_3_E_ZL</v>
+        <v>2016:1:2:7:TAO_3_E_ZL</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -14362,7 +15712,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TAO_3_E</v>
+        <v>2016:1:2:7:TAO_3_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -14441,7 +15791,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:NANKAN_E</v>
+        <v>2016:1:2:7:NANKAN_E</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -14520,7 +15870,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:NANKAN_S</v>
+        <v>2016:1:2:7:NANKAN_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -14692,7 +16042,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TAO_2_E</v>
+        <v>2016:1:2:7:TAO_2_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -14771,7 +16121,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:2:4:TAO_1_A</v>
+        <v>2016:1:2:7:TAO_1_A</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -14850,7 +16200,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:2:4:TAO_1_B</v>
+        <v>2016:1:2:7:TAO_1_B</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -14929,7 +16279,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:2:4:TAO_2_S</v>
+        <v>2016:1:2:7:TAO_2_S</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -15008,7 +16358,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:2:4:GUISHAN_E</v>
+        <v>2016:1:2:7:GUISHAN_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -15180,7 +16530,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" ref="C25" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A25)</f>
-        <v>2016:1:2:4:BADE_A_E</v>
+        <v>2016:1:2:7:BADE_A_E</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -15259,7 +16609,7 @@
       </c>
       <c r="C26" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A26)</f>
-        <v>2016:1:2:4:LONGTAN_E</v>
+        <v>2016:1:2:7:LONGTAN_E</v>
       </c>
       <c r="D26" s="11" t="e">
         <f>MATCH($C26,[1]report_data!$A:$A,0)</f>
@@ -15338,7 +16688,7 @@
       </c>
       <c r="C27" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A27)</f>
-        <v>2016:1:2:4:BADE_B_E</v>
+        <v>2016:1:2:7:BADE_B_E</v>
       </c>
       <c r="D27" s="11" t="e">
         <f>MATCH($C27,[1]report_data!$A:$A,0)</f>
@@ -15417,7 +16767,7 @@
       </c>
       <c r="C28" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A28)</f>
-        <v>2016:1:2:4:BADE_S</v>
+        <v>2016:1:2:7:BADE_S</v>
       </c>
       <c r="D28" s="11" t="e">
         <f>MATCH($C28,[1]report_data!$A:$A,0)</f>
@@ -15589,7 +16939,7 @@
       </c>
       <c r="C31" s="11" t="str">
         <f t="shared" ref="C31" si="6">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A31)</f>
-        <v>2016:1:2:4:ZHONGLI_2_E</v>
+        <v>2016:1:2:7:ZHONGLI_2_E</v>
       </c>
       <c r="D31" s="11" t="e">
         <f>MATCH($C31,[1]report_data!$A:$A,0)</f>
@@ -15668,7 +17018,7 @@
       </c>
       <c r="C32" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A32)</f>
-        <v>2016:1:2:4:ZHONGLI_1_E</v>
+        <v>2016:1:2:7:ZHONGLI_1_E</v>
       </c>
       <c r="D32" s="11" t="e">
         <f>MATCH($C32,[1]report_data!$A:$A,0)</f>
@@ -15747,7 +17097,7 @@
       </c>
       <c r="C33" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A33)</f>
-        <v>2016:1:2:4:ZHONGLI_1_S</v>
+        <v>2016:1:2:7:ZHONGLI_1_S</v>
       </c>
       <c r="D33" s="11" t="e">
         <f>MATCH($C33,[1]report_data!$A:$A,0)</f>
@@ -16398,8 +17748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16764,7 +18114,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:ASSISTANTS</v>
+        <v>2016:1:2:7:ASSISTANTS</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -16843,7 +18193,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TOUR_S</v>
+        <v>2016:1:2:7:TOUR_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -16922,74 +18272,74 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:OFFICE_E</v>
-      </c>
-      <c r="D14" s="11" t="e">
+        <v>2016:1:2:7:OFFICE_E</v>
+      </c>
+      <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="21" t="e">
+        <v>48</v>
+      </c>
+      <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="K14" s="21" t="e">
+      <c r="K14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(K$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="L14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="M14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O14" s="21" t="e">
+        <v>2</v>
+      </c>
+      <c r="O14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P14" s="21" t="e">
+        <v>6</v>
+      </c>
+      <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14" s="21" t="e">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="R14" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S14" s="21" t="e">
+        <v>3</v>
+      </c>
+      <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T14" s="21" t="e">
+        <v>0</v>
+      </c>
+      <c r="T14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -17568,7 +18918,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C14" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:JIAN_E</v>
+        <v>2016:1:2:7:JIAN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -17647,7 +18997,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:HUALIAN_1_E</v>
+        <v>2016:1:2:7:HUALIAN_1_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -17726,7 +19076,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:HUALIAN_1_S</v>
+        <v>2016:1:2:7:HUALIAN_1_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -17898,7 +19248,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" ref="C17:C19" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A17)</f>
-        <v>2016:1:2:4:HUALIAN_3_A_E</v>
+        <v>2016:1:2:7:HUALIAN_3_A_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -17977,7 +19327,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:HUALIAN_3_B_E</v>
+        <v>2016:1:2:7:HUALIAN_3_B_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -18056,7 +19406,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:HUALIAN_1_S</v>
+        <v>2016:1:2:7:HUALIAN_1_S</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -18808,7 +20158,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C13" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:TAIDONG_3_E</v>
+        <v>2016:1:2:7:TAIDONG_3_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -18887,7 +20237,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TAIDONG_2_S</v>
+        <v>2016:1:2:7:TAIDONG_2_S</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -19059,7 +20409,7 @@
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" ref="C16:C18" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A16)</f>
-        <v>2016:1:2:4:TAIDONG_1_E</v>
+        <v>2016:1:2:7:TAIDONG_1_E</v>
       </c>
       <c r="D16" s="11" t="e">
         <f>MATCH($C16,[1]report_data!$A:$A,0)</f>
@@ -19138,7 +20488,7 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:TAIDONG_3_E</v>
+        <v>2016:1:2:7:TAIDONG_3_E</v>
       </c>
       <c r="D17" s="11" t="e">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
@@ -19217,7 +20567,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:TAIDONG_1_S</v>
+        <v>2016:1:2:7:TAIDONG_1_S</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -19389,7 +20739,7 @@
       </c>
       <c r="C21" s="11" t="str">
         <f t="shared" ref="C21:C22" si="4">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:2:4:YULI_E</v>
+        <v>2016:1:2:7:YULI_E</v>
       </c>
       <c r="D21" s="11" t="e">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
@@ -19468,7 +20818,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>2016:1:2:4:YULI_S</v>
+        <v>2016:1:2:7:YULI_S</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -20151,7 +21501,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C15" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:ZHUNAN_E</v>
+        <v>2016:1:2:7:ZHUNAN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -20230,7 +21580,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XIANGSHAN_A</v>
+        <v>2016:1:2:7:XIANGSHAN_A</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -20309,7 +21659,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XIANGSHAN_B</v>
+        <v>2016:1:2:7:XIANGSHAN_B</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -20388,7 +21738,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:ZHUNAN_S</v>
+        <v>2016:1:2:7:ZHUNAN_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -20560,7 +21910,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" ref="C18:C20" si="2">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:2:4:TOUFEN_E</v>
+        <v>2016:1:2:7:TOUFEN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -20639,7 +21989,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:MIAOLI_B_E</v>
+        <v>2016:1:2:7:MIAOLI_B_E</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -20718,7 +22068,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>2016:1:2:4:MIAOLI_A_E</v>
+        <v>2016:1:2:7:MIAOLI_A_E</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -21523,7 +22873,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:XINZHU_3_E</v>
+        <v>2016:1:2:7:XINZHU_3_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -21602,7 +22952,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XINZHU_1_E</v>
+        <v>2016:1:2:7:XINZHU_1_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -21681,7 +23031,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XINZHU_1_S</v>
+        <v>2016:1:2:7:XINZHU_1_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -21760,7 +23110,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XINZHU_3_S</v>
+        <v>2016:1:2:7:XINZHU_3_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -21932,7 +23282,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:ZHUDONG_E</v>
+        <v>2016:1:2:7:ZHUDONG_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -22011,7 +23361,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:2:4:ZHUDONG_S</v>
+        <v>2016:1:2:7:ZHUDONG_S</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -22183,7 +23533,7 @@
       </c>
       <c r="C22" s="11" t="str">
         <f t="shared" ref="C22:C25" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A22)</f>
-        <v>2016:1:2:4:ZHUBEI_1_E</v>
+        <v>2016:1:2:7:ZHUBEI_1_E</v>
       </c>
       <c r="D22" s="11" t="e">
         <f>MATCH($C22,[1]report_data!$A:$A,0)</f>
@@ -22262,7 +23612,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:ZHUBEI_2_E</v>
+        <v>2016:1:2:7:ZHUBEI_2_E</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -22341,7 +23691,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:ZHUBEI_1_S</v>
+        <v>2016:1:2:7:ZHUBEI_1_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -22420,7 +23770,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:ZHUBEI_2_S</v>
+        <v>2016:1:2:7:ZHUBEI_2_S</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -23277,11 +24627,11 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C19" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:NORTH_JINHUA_E</v>
+        <v>2016:1:2:7:NORTH_JINHUA_E</v>
       </c>
       <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23293,11 +24643,11 @@
       </c>
       <c r="G12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23320,23 +24670,23 @@
       </c>
       <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23356,11 +24706,11 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:WANDA_E</v>
+        <v>2016:1:2:7:WANDA_E</v>
       </c>
       <c r="D13" s="11">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23376,7 +24726,7 @@
       </c>
       <c r="H13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23395,27 +24745,27 @@
       </c>
       <c r="M13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="R13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23435,11 +24785,11 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:WANDA_A_S</v>
+        <v>2016:1:2:7:WANDA_A_S</v>
       </c>
       <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23474,7 +24824,7 @@
       </c>
       <c r="M14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23482,19 +24832,19 @@
       </c>
       <c r="O14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23514,11 +24864,11 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XINAN_S</v>
+        <v>2016:1:2:7:XINAN_S</v>
       </c>
       <c r="D15" s="11">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23526,7 +24876,7 @@
       </c>
       <c r="F15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23538,7 +24888,7 @@
       </c>
       <c r="I15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>55</v>
@@ -23549,7 +24899,7 @@
       </c>
       <c r="L15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23561,27 +24911,27 @@
       </c>
       <c r="O15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D15,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -23593,11 +24943,11 @@
       </c>
       <c r="C16" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:WANDA_B_S</v>
+        <v>2016:1:2:7:WANDA_B_S</v>
       </c>
       <c r="D16" s="11">
         <f>MATCH($C16,[1]report_data!$A:$A,0)</f>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23609,11 +24959,11 @@
       </c>
       <c r="G16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23636,23 +24986,23 @@
       </c>
       <c r="N16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D16,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23676,19 +25026,19 @@
       </c>
       <c r="F17" s="22">
         <f>SUM(F12:F16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="22">
         <f>SUM(G12:G16)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" s="22">
         <f>SUM(H12:H16)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I17" s="22">
         <f>SUM(I12:I16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="22">
@@ -23697,39 +25047,39 @@
       </c>
       <c r="L17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="22">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="P17" s="22">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="Q17" s="22">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R17" s="22">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -23765,11 +25115,11 @@
       </c>
       <c r="C19" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:SANCHONG_E</v>
+        <v>2016:1:2:7:SANCHONG_E</v>
       </c>
       <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23781,11 +25131,11 @@
       </c>
       <c r="G19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23808,27 +25158,27 @@
       </c>
       <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23844,11 +25194,11 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:2:4:LUZHOU_E</v>
+        <v>2016:1:2:7:LUZHOU_E</v>
       </c>
       <c r="D20" s="11">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23864,11 +25214,11 @@
       </c>
       <c r="H20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>176</v>
@@ -23883,31 +25233,31 @@
       </c>
       <c r="M20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23923,11 +25273,11 @@
       </c>
       <c r="C21" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A21)</f>
-        <v>2016:1:2:4:SANCHONG_S</v>
+        <v>2016:1:2:7:SANCHONG_S</v>
       </c>
       <c r="D21" s="11">
         <f>MATCH($C21,[1]report_data!$A:$A,0)</f>
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23939,11 +25289,11 @@
       </c>
       <c r="G21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -23966,27 +25316,27 @@
       </c>
       <c r="N21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D21,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24010,15 +25360,15 @@
       </c>
       <c r="G22" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H22" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="22">
@@ -24031,31 +25381,31 @@
       </c>
       <c r="M22" s="22">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N22" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P22" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="22">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R22" s="22">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S22" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T22" s="22">
         <f t="shared" si="2"/>
@@ -24257,7 +25607,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24622,11 +25972,11 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C17" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:SHILIN_E</v>
+        <v>2016:1:2:7:SHILIN_E</v>
       </c>
       <c r="D12" s="11">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24642,11 +25992,11 @@
       </c>
       <c r="H12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="11" t="s">
         <v>168</v>
@@ -24661,27 +26011,27 @@
       </c>
       <c r="M12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S12" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D12,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24701,11 +26051,11 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:TIANMU_E</v>
+        <v>2016:1:2:7:TIANMU_E</v>
       </c>
       <c r="D13" s="11">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24717,7 +26067,7 @@
       </c>
       <c r="G13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24748,11 +26098,11 @@
       </c>
       <c r="O13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24764,7 +26114,7 @@
       </c>
       <c r="S13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D13,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24780,11 +26130,11 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:SHILIN_S</v>
+        <v>2016:1:2:7:SHILIN_S</v>
       </c>
       <c r="D14" s="11">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24831,15 +26181,15 @@
       </c>
       <c r="P14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D14,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24867,15 +26217,15 @@
       </c>
       <c r="G15" s="22">
         <f>SUM(G12:G14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="22">
         <f>SUM(H12:H14)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="22">
         <f>SUM(I12:I14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="22">
@@ -24888,31 +26238,31 @@
       </c>
       <c r="M15" s="22">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="1"/>
@@ -24952,11 +26302,11 @@
       </c>
       <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:BEITOU_E</v>
+        <v>2016:1:2:7:BEITOU_E</v>
       </c>
       <c r="D17" s="11">
         <f>MATCH($C17,[1]report_data!$A:$A,0)</f>
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24972,7 +26322,7 @@
       </c>
       <c r="H17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24991,7 +26341,7 @@
       </c>
       <c r="M17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -24999,23 +26349,23 @@
       </c>
       <c r="O17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D17,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25031,11 +26381,11 @@
       </c>
       <c r="C18" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A18)</f>
-        <v>2016:1:2:4:DANSHUI_E</v>
+        <v>2016:1:2:7:DANSHUI_E</v>
       </c>
       <c r="D18" s="11">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25043,19 +26393,19 @@
       </c>
       <c r="F18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(F$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>165</v>
@@ -25066,7 +26416,7 @@
       </c>
       <c r="L18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(L$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25074,27 +26424,27 @@
       </c>
       <c r="N18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T18" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D18,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25110,11 +26460,11 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:2:4:ZHUWEI_E</v>
+        <v>2016:1:2:7:ZHUWEI_E</v>
       </c>
       <c r="D19" s="11">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25126,7 +26476,7 @@
       </c>
       <c r="G19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25134,7 +26484,7 @@
       </c>
       <c r="I19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>166</v>
@@ -25149,31 +26499,31 @@
       </c>
       <c r="M19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T19" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D19,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25189,11 +26539,11 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:2:4:BEITOU_S</v>
+        <v>2016:1:2:7:BEITOU_S</v>
       </c>
       <c r="D20" s="11">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(E$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25205,11 +26555,11 @@
       </c>
       <c r="G20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(G$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(H$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(I$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25228,31 +26578,31 @@
       </c>
       <c r="M20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(M$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(N$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(O$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(P$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(Q$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(R$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(S$10,[1]report_data!$A$1:$Z$1,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20" s="21">
         <f>INDEX([1]report_data!$A:$Z,$D20,MATCH(T$10,[1]report_data!$A$1:$Z$1,0))</f>
@@ -25272,7 +26622,7 @@
       </c>
       <c r="F21" s="22">
         <f t="shared" ref="F21:T21" si="2">SUM(F17:F19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="22">
         <f t="shared" si="2"/>
@@ -25293,7 +26643,7 @@
       </c>
       <c r="L21" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="2"/>
@@ -25301,27 +26651,27 @@
       </c>
       <c r="N21" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O21" s="22">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P21" s="22">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="22">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R21" s="22">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S21" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T21" s="22">
         <f t="shared" si="2"/>
@@ -25835,7 +27185,7 @@
       </c>
       <c r="C12" s="11" t="str">
         <f t="shared" ref="C12:C18" si="0">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A12)</f>
-        <v>2016:1:2:4:JINGXIN_E</v>
+        <v>2016:1:2:7:JINGXIN_E</v>
       </c>
       <c r="D12" s="11" t="e">
         <f>MATCH($C12,[1]report_data!$A:$A,0)</f>
@@ -25914,7 +27264,7 @@
       </c>
       <c r="C13" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:MUZHA_E</v>
+        <v>2016:1:2:7:MUZHA_E</v>
       </c>
       <c r="D13" s="11" t="e">
         <f>MATCH($C13,[1]report_data!$A:$A,0)</f>
@@ -25993,7 +27343,7 @@
       </c>
       <c r="C14" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:JINGXIN_S</v>
+        <v>2016:1:2:7:JINGXIN_S</v>
       </c>
       <c r="D14" s="11" t="e">
         <f>MATCH($C14,[1]report_data!$A:$A,0)</f>
@@ -26072,7 +27422,7 @@
       </c>
       <c r="C15" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:MUZHA_S</v>
+        <v>2016:1:2:7:MUZHA_S</v>
       </c>
       <c r="D15" s="11" t="e">
         <f>MATCH($C15,[1]report_data!$A:$A,0)</f>
@@ -26244,7 +27594,7 @@
       </c>
       <c r="C18" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>2016:1:2:4:XINDIAN_E</v>
+        <v>2016:1:2:7:XINDIAN_E</v>
       </c>
       <c r="D18" s="11" t="e">
         <f>MATCH($C18,[1]report_data!$A:$A,0)</f>
@@ -26323,7 +27673,7 @@
       </c>
       <c r="C19" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A19)</f>
-        <v>2016:1:2:4:ANKANG_E</v>
+        <v>2016:1:2:7:ANKANG_E</v>
       </c>
       <c r="D19" s="11" t="e">
         <f>MATCH($C19,[1]report_data!$A:$A,0)</f>
@@ -26402,7 +27752,7 @@
       </c>
       <c r="C20" s="11" t="str">
         <f>CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A20)</f>
-        <v>2016:1:2:4:XINDIAN_S</v>
+        <v>2016:1:2:7:XINDIAN_S</v>
       </c>
       <c r="D20" s="11" t="e">
         <f>MATCH($C20,[1]report_data!$A:$A,0)</f>
@@ -26574,7 +27924,7 @@
       </c>
       <c r="C23" s="11" t="str">
         <f t="shared" ref="C23:C26" si="3">CONCATENATE(YEAR,":",MONTH,":",WEEK,":",DAY,":",$A23)</f>
-        <v>2016:1:2:4:ZHONGHE_2_E</v>
+        <v>2016:1:2:7:ZHONGHE_2_E</v>
       </c>
       <c r="D23" s="11" t="e">
         <f>MATCH($C23,[1]report_data!$A:$A,0)</f>
@@ -26653,7 +28003,7 @@
       </c>
       <c r="C24" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:ZHONGHE_2_S</v>
+        <v>2016:1:2:7:ZHONGHE_2_S</v>
       </c>
       <c r="D24" s="11" t="e">
         <f>MATCH($C24,[1]report_data!$A:$A,0)</f>
@@ -26732,7 +28082,7 @@
       </c>
       <c r="C25" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:ZHONGHE_1_E</v>
+        <v>2016:1:2:7:ZHONGHE_1_E</v>
       </c>
       <c r="D25" s="11" t="e">
         <f>MATCH($C25,[1]report_data!$A:$A,0)</f>
@@ -26811,7 +28161,7 @@
       </c>
       <c r="C26" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>2016:1:2:4:YONGHE_S</v>
+        <v>2016:1:2:7:YONGHE_S</v>
       </c>
       <c r="D26" s="11" t="e">
         <f>MATCH($C26,[1]report_data!$A:$A,0)</f>
